--- a/data/536/BKPM/FDI.xlsx
+++ b/data/536/BKPM/FDI.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218" xml:space="preserve">
   <si>
     <t>Statistic of Foreign Direct Investment Realization</t>
   </si>
   <si>
-    <t>From Year 1990 to Year 2021</t>
+    <t>From Year 1990 to Year 2022</t>
   </si>
   <si>
     <t>1990</t>
@@ -5071,6 +5071,28 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
+      <t xml:space="preserve">Albania</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.0"/>
+        <color theme="1"/>
+        <family val="2"/>
+        <rFont val="Andale WT"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.0"/>
+        <color theme="1"/>
+        <family val="2"/>
+        <rFont val="Andale WT"/>
+      </rPr>
       <t xml:space="preserve">British Isles</t>
     </r>
     <r>
@@ -5235,19 +5257,19 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Asia</t>
+    <t>Amerika</t>
   </si>
   <si>
     <t>Afrika</t>
   </si>
   <si>
-    <t>Eropa</t>
-  </si>
-  <si>
-    <t>Amerika</t>
+    <t>Asia</t>
   </si>
   <si>
     <t>Australia</t>
+  </si>
+  <si>
+    <t>Eropa</t>
   </si>
   <si>
     <t>Joint</t>
@@ -6525,7 +6547,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="17592675" cy="3390900"/>
@@ -6550,7 +6572,7 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="17592675" cy="3390900"/>
@@ -7144,10 +7166,10 @@
         <v>112320.8</v>
       </c>
       <c r="BM6" s="35">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="BN6" s="36">
-        <v>49097.6</v>
+        <v>106483.3</v>
       </c>
     </row>
     <row r="7" spans="1:66">
@@ -7273,7 +7295,7 @@
         <v>3</v>
       </c>
       <c r="BN7" s="36">
-        <v>0</v>
+        <v>481.7</v>
       </c>
     </row>
     <row r="8" spans="1:66">
@@ -7404,10 +7426,10 @@
         <v>67234.8</v>
       </c>
       <c r="BM8" s="35">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="BN8" s="36">
-        <v>30014.8</v>
+        <v>52224.2</v>
       </c>
     </row>
     <row r="9" spans="1:66">
@@ -8060,10 +8082,10 @@
         <v>364.9</v>
       </c>
       <c r="BM14" s="35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BN14" s="36">
-        <v>7.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:66">
@@ -8182,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="BM15" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN15" s="36">
         <v>0</v>
@@ -8296,10 +8318,10 @@
         <v>92.8</v>
       </c>
       <c r="BM16" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BN16" s="36">
-        <v>719.2</v>
+        <v>743.9</v>
       </c>
     </row>
     <row r="17" spans="1:66">
@@ -8590,10 +8612,10 @@
         <v>78.3</v>
       </c>
       <c r="BM19" s="35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BN19" s="36">
-        <v>1078.3</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="20" spans="1:66">
@@ -9640,7 +9662,7 @@
         <v>15.6</v>
       </c>
       <c r="BM30" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN30" s="36">
         <v>0</v>
@@ -9980,7 +10002,7 @@
       <c r="BK34" s="33"/>
       <c r="BL34" s="33"/>
       <c r="BM34" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN34" s="36">
         <v>180.6</v>
@@ -10128,10 +10150,10 @@
       <c r="BK36" s="33"/>
       <c r="BL36" s="33"/>
       <c r="BM36" s="35">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="BN36" s="36">
-        <v>2071.6</v>
+        <v>3406.5</v>
       </c>
     </row>
     <row r="37" spans="1:66">
@@ -10302,10 +10324,10 @@
         <v>180150.2</v>
       </c>
       <c r="BM37" s="41">
-        <v>423</v>
+        <v>275</v>
       </c>
       <c r="BN37" s="42">
-        <v>83214.4</v>
+        <v>165033.9</v>
       </c>
     </row>
     <row r="38" spans="1:66">
@@ -10474,10 +10496,10 @@
         <v>4842405.8</v>
       </c>
       <c r="BM38" s="35">
-        <v>2515</v>
+        <v>1806</v>
       </c>
       <c r="BN38" s="36">
-        <v>2277709.1</v>
+        <v>3160380.1</v>
       </c>
     </row>
     <row r="39" spans="1:66">
@@ -10672,10 +10694,10 @@
         <v>9779105.6</v>
       </c>
       <c r="BM39" s="35">
-        <v>10951</v>
+        <v>6934</v>
       </c>
       <c r="BN39" s="36">
-        <v>7271602</v>
+        <v>9390063.4</v>
       </c>
     </row>
     <row r="40" spans="1:66">
@@ -10862,10 +10884,10 @@
         <v>1045271</v>
       </c>
       <c r="BM40" s="35">
-        <v>2160</v>
+        <v>1474</v>
       </c>
       <c r="BN40" s="36">
-        <v>985153.6</v>
+        <v>1364326.2</v>
       </c>
     </row>
     <row r="41" spans="1:66">
@@ -11060,10 +11082,10 @@
         <v>454344.1</v>
       </c>
       <c r="BM41" s="35">
-        <v>733</v>
+        <v>458</v>
       </c>
       <c r="BN41" s="36">
-        <v>265279.7</v>
+        <v>316854.7</v>
       </c>
     </row>
     <row r="42" spans="1:66">
@@ -11190,10 +11212,10 @@
         <v>21577.5</v>
       </c>
       <c r="BM42" s="35">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="BN42" s="36">
-        <v>7787.7</v>
+        <v>16149.2</v>
       </c>
     </row>
     <row r="43" spans="1:66">
@@ -11364,10 +11386,10 @@
         <v>112105.1</v>
       </c>
       <c r="BM43" s="35">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="BN43" s="36">
-        <v>364143.5</v>
+        <v>450289.1</v>
       </c>
     </row>
     <row r="44" spans="1:66">
@@ -11526,10 +11548,10 @@
         <v>159.5</v>
       </c>
       <c r="BM44" s="35">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="BN44" s="36">
-        <v>808.8</v>
+        <v>70023.1</v>
       </c>
     </row>
     <row r="45" spans="1:66">
@@ -11672,10 +11694,10 @@
         <v>5745</v>
       </c>
       <c r="BM45" s="35">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="BN45" s="36">
-        <v>3633.9</v>
+        <v>3639.7</v>
       </c>
     </row>
     <row r="46" spans="1:66">
@@ -11806,7 +11828,7 @@
         <v>1024</v>
       </c>
       <c r="BM46" s="35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BN46" s="36">
         <v>312.8</v>
@@ -11923,7 +11945,7 @@
         <v>8</v>
       </c>
       <c r="BN47" s="36">
-        <v>91.1</v>
+        <v>918</v>
       </c>
     </row>
     <row r="48" spans="1:66">
@@ -12026,10 +12048,10 @@
         <v>114.7</v>
       </c>
       <c r="BM48" s="35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BN48" s="36">
-        <v>43.7</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="49" spans="1:66">
@@ -12234,10 +12256,10 @@
         <v>1865</v>
       </c>
       <c r="BM50" s="35">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BN50" s="36">
-        <v>355.9</v>
+        <v>356.4</v>
       </c>
     </row>
     <row r="51" spans="1:66">
@@ -12360,7 +12382,7 @@
         <v>0.3</v>
       </c>
       <c r="BM51" s="35">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BN51" s="36">
         <v>0</v>
@@ -12478,10 +12500,10 @@
         <v>693.8</v>
       </c>
       <c r="BM52" s="35">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="BN52" s="36">
-        <v>337.4</v>
+        <v>345.2</v>
       </c>
     </row>
     <row r="53" spans="1:66">
@@ -13014,10 +13036,10 @@
         <v>2588016.1</v>
       </c>
       <c r="BM56" s="35">
-        <v>5579</v>
+        <v>3623</v>
       </c>
       <c r="BN56" s="36">
-        <v>1753523</v>
+        <v>2263229.2</v>
       </c>
     </row>
     <row r="57" spans="1:66">
@@ -13212,10 +13234,10 @@
         <v>1841946.3</v>
       </c>
       <c r="BM57" s="35">
-        <v>3647</v>
+        <v>2511</v>
       </c>
       <c r="BN57" s="36">
-        <v>1330686.3</v>
+        <v>1640156.4</v>
       </c>
     </row>
     <row r="58" spans="1:66">
@@ -13410,10 +13432,10 @@
         <v>3535896.6</v>
       </c>
       <c r="BM58" s="35">
-        <v>1966</v>
+        <v>1418</v>
       </c>
       <c r="BN58" s="36">
-        <v>3124510</v>
+        <v>4609341.9</v>
       </c>
     </row>
     <row r="59" spans="1:66">
@@ -13556,7 +13578,7 @@
         <v>177.7</v>
       </c>
       <c r="BM59" s="35">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BN59" s="36">
         <v>71.5</v>
@@ -13734,10 +13756,10 @@
         <v>57625.9</v>
       </c>
       <c r="BM60" s="35">
-        <v>692</v>
+        <v>465</v>
       </c>
       <c r="BN60" s="36">
-        <v>29825.3</v>
+        <v>49575.7</v>
       </c>
     </row>
     <row r="61" spans="1:66">
@@ -13824,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="BM61" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN61" s="36">
         <v>0</v>
@@ -13950,10 +13972,10 @@
         <v>61.6</v>
       </c>
       <c r="BM62" s="35">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="BN62" s="36">
-        <v>26.2</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="63" spans="1:66">
@@ -14044,10 +14066,10 @@
         <v>0</v>
       </c>
       <c r="BM63" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN63" s="36">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="64" spans="1:66">
@@ -14153,7 +14175,7 @@
         <v>3</v>
       </c>
       <c r="BN64" s="36">
-        <v>16207.9</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="65" spans="1:66">
@@ -14362,10 +14384,10 @@
         <v>2016.4</v>
       </c>
       <c r="BM66" s="35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BN66" s="36">
-        <v>52.7</v>
+        <v>93.1</v>
       </c>
     </row>
     <row r="67" spans="1:66">
@@ -14537,7 +14559,7 @@
         <v>1</v>
       </c>
       <c r="BN68" s="36">
-        <v>211.9</v>
+        <v>576.4</v>
       </c>
     </row>
     <row r="69" spans="1:66">
@@ -14652,7 +14674,7 @@
         <v>163.5</v>
       </c>
       <c r="BM69" s="35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BN69" s="36">
         <v>0</v>
@@ -14754,7 +14776,7 @@
         <v>39.1</v>
       </c>
       <c r="BM70" s="35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BN70" s="36">
         <v>0</v>
@@ -14852,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="BM71" s="35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BN71" s="36">
         <v>0</v>
@@ -15008,10 +15030,10 @@
       <c r="BK73" s="33"/>
       <c r="BL73" s="33"/>
       <c r="BM73" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN73" s="36">
-        <v>5137</v>
+        <v>5145.1</v>
       </c>
     </row>
     <row r="74" spans="1:66">
@@ -15270,10 +15292,10 @@
       <c r="BK76" s="33"/>
       <c r="BL76" s="33"/>
       <c r="BM76" s="35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BN76" s="36">
-        <v>390.9</v>
+        <v>393.9</v>
       </c>
     </row>
     <row r="77" spans="1:66">
@@ -15434,7 +15456,7 @@
       <c r="BK78" s="33"/>
       <c r="BL78" s="33"/>
       <c r="BM78" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN78" s="36">
         <v>0</v>
@@ -15593,7 +15615,7 @@
         <v>2</v>
       </c>
       <c r="BN80" s="36">
-        <v>111.1</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="81" spans="1:66">
@@ -15788,10 +15810,10 @@
         <v>24297393.1</v>
       </c>
       <c r="BM81" s="41">
-        <v>29037</v>
+        <v>19295</v>
       </c>
       <c r="BN81" s="42">
-        <v>17438016.3</v>
+        <v>23358704</v>
       </c>
     </row>
     <row r="82" spans="1:66">
@@ -15988,10 +16010,10 @@
         <v>348553.3</v>
       </c>
       <c r="BM82" s="35">
-        <v>1216</v>
+        <v>839</v>
       </c>
       <c r="BN82" s="36">
-        <v>144584.5</v>
+        <v>195195.5</v>
       </c>
     </row>
     <row r="83" spans="1:66">
@@ -16146,10 +16168,10 @@
         <v>13387.9</v>
       </c>
       <c r="BM83" s="35">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="BN83" s="36">
-        <v>7151.3</v>
+        <v>8181.6</v>
       </c>
     </row>
     <row r="84" spans="1:66">
@@ -16276,10 +16298,10 @@
         <v>7083.5</v>
       </c>
       <c r="BM84" s="35">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="BN84" s="36">
-        <v>5457.5</v>
+        <v>7896.2</v>
       </c>
     </row>
     <row r="85" spans="1:66">
@@ -16464,10 +16486,10 @@
         <v>1127</v>
       </c>
       <c r="BM86" s="35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BN86" s="36">
-        <v>707.4</v>
+        <v>749.7</v>
       </c>
     </row>
     <row r="87" spans="1:66">
@@ -16574,10 +16596,10 @@
         <v>19578.7</v>
       </c>
       <c r="BM87" s="35">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="BN87" s="36">
-        <v>6132</v>
+        <v>7427.6</v>
       </c>
     </row>
     <row r="88" spans="1:66">
@@ -16672,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="BM88" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN88" s="36">
         <v>0</v>
@@ -16839,7 +16861,7 @@
         <v>6</v>
       </c>
       <c r="BN90" s="36">
-        <v>4159.5</v>
+        <v>16837.8</v>
       </c>
     </row>
     <row r="91" spans="1:66">
@@ -17034,10 +17056,10 @@
         <v>390119.9</v>
       </c>
       <c r="BM91" s="41">
-        <v>1466</v>
+        <v>1014</v>
       </c>
       <c r="BN91" s="42">
-        <v>168192.2</v>
+        <v>236288.4</v>
       </c>
     </row>
     <row r="92" spans="1:66">
@@ -17218,10 +17240,10 @@
         <v>175287</v>
       </c>
       <c r="BM92" s="35">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="BN92" s="36">
-        <v>108420</v>
+        <v>182090.7</v>
       </c>
     </row>
     <row r="93" spans="1:66">
@@ -17388,10 +17410,10 @@
         <v>537.9</v>
       </c>
       <c r="BM93" s="35">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="BN93" s="36">
-        <v>353.9</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="94" spans="1:66">
@@ -17616,10 +17638,10 @@
         <v>682.5</v>
       </c>
       <c r="BM95" s="35">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="BN95" s="36">
-        <v>157.9</v>
+        <v>282.1</v>
       </c>
     </row>
     <row r="96" spans="1:66">
@@ -17721,7 +17743,7 @@
         <v>1</v>
       </c>
       <c r="BN96" s="36">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:66">
@@ -17934,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="BM98" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN98" s="36">
         <v>0</v>
@@ -18122,7 +18144,7 @@
         <v>0.5</v>
       </c>
       <c r="BM100" s="35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BN100" s="36">
         <v>149.2</v>
@@ -18300,10 +18322,10 @@
         <v>334339.1</v>
       </c>
       <c r="BM101" s="35">
-        <v>639</v>
+        <v>433</v>
       </c>
       <c r="BN101" s="36">
-        <v>255450.6</v>
+        <v>345193</v>
       </c>
     </row>
     <row r="102" spans="1:66">
@@ -18498,10 +18520,10 @@
         <v>749730.9</v>
       </c>
       <c r="BM102" s="35">
-        <v>1184</v>
+        <v>824</v>
       </c>
       <c r="BN102" s="36">
-        <v>1309102</v>
+        <v>2537218.5</v>
       </c>
     </row>
     <row r="103" spans="1:66">
@@ -18706,10 +18728,10 @@
         <v>182898.6</v>
       </c>
       <c r="BM104" s="35">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="BN104" s="36">
-        <v>69857.7</v>
+        <v>115283.1</v>
       </c>
     </row>
     <row r="105" spans="1:66">
@@ -18889,7 +18911,7 @@
         <v>15</v>
       </c>
       <c r="BN106" s="36">
-        <v>15234</v>
+        <v>24032.8</v>
       </c>
     </row>
     <row r="107" spans="1:66">
@@ -18980,7 +19002,7 @@
         <v>0.7</v>
       </c>
       <c r="BM107" s="35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BN107" s="36">
         <v>11.8</v>
@@ -19102,7 +19124,7 @@
         <v>51.5</v>
       </c>
       <c r="BM108" s="35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BN108" s="36">
         <v>49.2</v>
@@ -19310,10 +19332,10 @@
         <v>122270.9</v>
       </c>
       <c r="BM110" s="35">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="BN110" s="36">
-        <v>376248.1</v>
+        <v>674368.4</v>
       </c>
     </row>
     <row r="111" spans="1:66">
@@ -19482,7 +19504,7 @@
         <v>77.1</v>
       </c>
       <c r="BM112" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN112" s="36">
         <v>20.5</v>
@@ -19674,7 +19696,7 @@
         <v>0</v>
       </c>
       <c r="BM114" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN114" s="36">
         <v>135.9</v>
@@ -19841,7 +19863,7 @@
         <v>1</v>
       </c>
       <c r="BN116" s="36">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="117" spans="1:66">
@@ -20092,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="BM119" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN119" s="36">
         <v>0</v>
@@ -20368,10 +20390,10 @@
         <v>1566120</v>
       </c>
       <c r="BM121" s="41">
-        <v>2342</v>
+        <v>1591</v>
       </c>
       <c r="BN121" s="42">
-        <v>2135220.8</v>
+        <v>3880082.3</v>
       </c>
     </row>
     <row r="122" spans="1:66">
@@ -20464,7 +20486,7 @@
         <v>1759.1</v>
       </c>
       <c r="BM122" s="35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BN122" s="36">
         <v>13031</v>
@@ -20630,10 +20652,10 @@
         <v>1221.4</v>
       </c>
       <c r="BM123" s="35">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="BN123" s="36">
-        <v>49467.4</v>
+        <v>63348.5</v>
       </c>
     </row>
     <row r="124" spans="1:66">
@@ -20772,10 +20794,10 @@
         <v>601.5</v>
       </c>
       <c r="BM124" s="35">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="BN124" s="36">
-        <v>366.3</v>
+        <v>825</v>
       </c>
     </row>
     <row r="125" spans="1:66">
@@ -20890,10 +20912,10 @@
         <v>426.4</v>
       </c>
       <c r="BM125" s="35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BN125" s="36">
-        <v>251.9</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:66">
@@ -21072,10 +21094,10 @@
         <v>2505</v>
       </c>
       <c r="BM126" s="35">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="BN126" s="36">
-        <v>10532</v>
+        <v>14242.7</v>
       </c>
     </row>
     <row r="127" spans="1:66">
@@ -21270,10 +21292,10 @@
         <v>143614</v>
       </c>
       <c r="BM127" s="35">
-        <v>724</v>
+        <v>515</v>
       </c>
       <c r="BN127" s="36">
-        <v>136871.2</v>
+        <v>182319</v>
       </c>
     </row>
     <row r="128" spans="1:66">
@@ -21464,10 +21486,10 @@
         <v>130891</v>
       </c>
       <c r="BM128" s="35">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="BN128" s="36">
-        <v>576335.2</v>
+        <v>599771.5</v>
       </c>
     </row>
     <row r="129" spans="1:66">
@@ -21590,7 +21612,7 @@
         <v>0</v>
       </c>
       <c r="BM129" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN129" s="36">
         <v>0</v>
@@ -21784,10 +21806,10 @@
         <v>27041</v>
       </c>
       <c r="BM130" s="35">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="BN130" s="36">
-        <v>37914.2</v>
+        <v>55514</v>
       </c>
     </row>
     <row r="131" spans="1:66">
@@ -21942,10 +21964,10 @@
         <v>3.8</v>
       </c>
       <c r="BM131" s="35">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="BN131" s="36">
-        <v>3469.8</v>
+        <v>4983.6</v>
       </c>
     </row>
     <row r="132" spans="1:66">
@@ -22096,10 +22118,10 @@
         <v>7584.4</v>
       </c>
       <c r="BM132" s="35">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="BN132" s="36">
-        <v>6000.1</v>
+        <v>6776.5</v>
       </c>
     </row>
     <row r="133" spans="1:66">
@@ -22222,10 +22244,10 @@
         <v>4603.7</v>
       </c>
       <c r="BM133" s="35">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="BN133" s="36">
-        <v>9239.3</v>
+        <v>23207.8</v>
       </c>
     </row>
     <row r="134" spans="1:66">
@@ -22327,8 +22349,12 @@
       <c r="BL134" s="36">
         <v>45.1</v>
       </c>
-      <c r="BM134" s="33"/>
-      <c r="BN134" s="33"/>
+      <c r="BM134" s="35">
+        <v>1</v>
+      </c>
+      <c r="BN134" s="36">
+        <v>207</v>
+      </c>
     </row>
     <row r="135" spans="1:66">
       <c r="A135" s="29"/>
@@ -22438,7 +22464,7 @@
         <v>176.4</v>
       </c>
       <c r="BM135" s="35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BN135" s="36">
         <v>154.5</v>
@@ -22608,10 +22634,10 @@
         <v>7017.1</v>
       </c>
       <c r="BM136" s="35">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="BN136" s="36">
-        <v>11815.1</v>
+        <v>20326.2</v>
       </c>
     </row>
     <row r="137" spans="1:66">
@@ -22718,10 +22744,10 @@
         <v>198.5</v>
       </c>
       <c r="BM137" s="35">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BN137" s="36">
-        <v>53.8</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="138" spans="1:66">
@@ -22840,10 +22866,10 @@
         <v>30.6</v>
       </c>
       <c r="BM138" s="35">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BN138" s="36">
-        <v>177</v>
+        <v>687.9</v>
       </c>
     </row>
     <row r="139" spans="1:66">
@@ -22962,10 +22988,10 @@
         <v>1560.3</v>
       </c>
       <c r="BM139" s="35">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="BN139" s="36">
-        <v>1472.2</v>
+        <v>1962.9</v>
       </c>
     </row>
     <row r="140" spans="1:66">
@@ -23264,10 +23290,10 @@
         <v>1091.5</v>
       </c>
       <c r="BM142" s="35">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="BN142" s="36">
-        <v>760.7</v>
+        <v>993</v>
       </c>
     </row>
     <row r="143" spans="1:66">
@@ -23500,10 +23526,10 @@
         <v>209184.7</v>
       </c>
       <c r="BM144" s="35">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="BN144" s="36">
-        <v>112647.6</v>
+        <v>144551.9</v>
       </c>
     </row>
     <row r="145" spans="1:66">
@@ -23708,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="BM146" s="35">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BN146" s="36">
-        <v>54.5</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="147" spans="1:66">
@@ -23810,7 +23836,7 @@
         <v>0</v>
       </c>
       <c r="BM147" s="35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BN147" s="36">
         <v>0</v>
@@ -23904,10 +23930,10 @@
         <v>16.2</v>
       </c>
       <c r="BM148" s="35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BN148" s="36">
-        <v>4140.1</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="149" spans="1:66">
@@ -23998,7 +24024,7 @@
         <v>0</v>
       </c>
       <c r="BM149" s="35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BN149" s="36">
         <v>0</v>
@@ -24092,7 +24118,7 @@
         <v>9.2</v>
       </c>
       <c r="BM150" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN150" s="36">
         <v>0</v>
@@ -24194,10 +24220,10 @@
         <v>2230.5</v>
       </c>
       <c r="BM151" s="35">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="BN151" s="36">
-        <v>1130</v>
+        <v>1602.7</v>
       </c>
     </row>
     <row r="152" spans="1:66">
@@ -24392,10 +24418,10 @@
         <v>25111.7</v>
       </c>
       <c r="BM152" s="35">
-        <v>944</v>
+        <v>709</v>
       </c>
       <c r="BN152" s="36">
-        <v>127293.6</v>
+        <v>145763.8</v>
       </c>
     </row>
     <row r="153" spans="1:66">
@@ -24590,10 +24616,10 @@
         <v>192752.4</v>
       </c>
       <c r="BM153" s="35">
-        <v>1132</v>
+        <v>705</v>
       </c>
       <c r="BN153" s="36">
-        <v>201458.7</v>
+        <v>322949.1</v>
       </c>
     </row>
     <row r="154" spans="1:66">
@@ -24788,10 +24814,10 @@
         <v>1422375.4</v>
       </c>
       <c r="BM154" s="35">
-        <v>1936</v>
+        <v>1243</v>
       </c>
       <c r="BN154" s="36">
-        <v>1527237</v>
+        <v>1761621.8</v>
       </c>
     </row>
     <row r="155" spans="1:66">
@@ -24962,10 +24988,10 @@
         <v>12681.1</v>
       </c>
       <c r="BM155" s="35">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="BN155" s="36">
-        <v>28598.9</v>
+        <v>37589.1</v>
       </c>
     </row>
     <row r="156" spans="1:66">
@@ -25084,10 +25110,10 @@
         <v>15411.5</v>
       </c>
       <c r="BM156" s="35">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="BN156" s="36">
-        <v>27207</v>
+        <v>31784.9</v>
       </c>
     </row>
     <row r="157" spans="1:66">
@@ -25242,10 +25268,10 @@
         <v>5004.9</v>
       </c>
       <c r="BM157" s="35">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="BN157" s="36">
-        <v>4745.3</v>
+        <v>9221.9</v>
       </c>
     </row>
     <row r="158" spans="1:66">
@@ -25414,7 +25440,7 @@
         <v>156.6</v>
       </c>
       <c r="BM159" s="35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN159" s="36">
         <v>367</v>
@@ -25507,7 +25533,7 @@
         <v>4</v>
       </c>
       <c r="BN160" s="36">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="161" spans="1:66">
@@ -25622,10 +25648,10 @@
         <v>754.5</v>
       </c>
       <c r="BM161" s="35">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="BN161" s="36">
-        <v>1018.8</v>
+        <v>1036.8</v>
       </c>
     </row>
     <row r="162" spans="1:66">
@@ -25716,10 +25742,10 @@
         <v>525</v>
       </c>
       <c r="BM162" s="35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BN162" s="36">
-        <v>410.4</v>
+        <v>442.6</v>
       </c>
     </row>
     <row r="163" spans="1:66">
@@ -25825,8 +25851,12 @@
       <c r="BL163" s="36">
         <v>0</v>
       </c>
-      <c r="BM163" s="33"/>
-      <c r="BN163" s="33"/>
+      <c r="BM163" s="35">
+        <v>1</v>
+      </c>
+      <c r="BN163" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:66">
       <c r="A164" s="29"/>
@@ -25940,7 +25970,7 @@
         <v>215.2</v>
       </c>
       <c r="BM164" s="35">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BN164" s="36">
         <v>1324.7</v>
@@ -26046,10 +26076,10 @@
         <v>251.4</v>
       </c>
       <c r="BM165" s="35">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="BN165" s="36">
-        <v>1448.9</v>
+        <v>1653.4</v>
       </c>
     </row>
     <row r="166" spans="1:66">
@@ -26124,10 +26154,10 @@
       <c r="BK166" s="33"/>
       <c r="BL166" s="33"/>
       <c r="BM166" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN166" s="36">
-        <v>5.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:66">
@@ -26195,17 +26225,13 @@
       <c r="BH167" s="33"/>
       <c r="BI167" s="33"/>
       <c r="BJ167" s="33"/>
-      <c r="BK167" s="35">
-        <v>2</v>
-      </c>
-      <c r="BL167" s="36">
-        <v>15430.9</v>
-      </c>
+      <c r="BK167" s="33"/>
+      <c r="BL167" s="33"/>
       <c r="BM167" s="35">
         <v>1</v>
       </c>
       <c r="BN167" s="36">
-        <v>110.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:66">
@@ -26271,16 +26297,20 @@
       <c r="BF168" s="33"/>
       <c r="BG168" s="33"/>
       <c r="BH168" s="33"/>
-      <c r="BI168" s="35">
-        <v>1</v>
-      </c>
-      <c r="BJ168" s="36">
-        <v>13.3</v>
-      </c>
-      <c r="BK168" s="33"/>
-      <c r="BL168" s="33"/>
-      <c r="BM168" s="33"/>
-      <c r="BN168" s="33"/>
+      <c r="BI168" s="33"/>
+      <c r="BJ168" s="33"/>
+      <c r="BK168" s="35">
+        <v>2</v>
+      </c>
+      <c r="BL168" s="36">
+        <v>15430.9</v>
+      </c>
+      <c r="BM168" s="35">
+        <v>0</v>
+      </c>
+      <c r="BN168" s="36">
+        <v>110.7</v>
+      </c>
     </row>
     <row r="169" spans="1:66">
       <c r="A169" s="29"/>
@@ -26345,452 +26375,452 @@
       <c r="BF169" s="33"/>
       <c r="BG169" s="33"/>
       <c r="BH169" s="33"/>
-      <c r="BI169" s="33"/>
-      <c r="BJ169" s="33"/>
+      <c r="BI169" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ169" s="36">
+        <v>13.3</v>
+      </c>
       <c r="BK169" s="33"/>
       <c r="BL169" s="33"/>
-      <c r="BM169" s="35">
-        <v>6</v>
-      </c>
-      <c r="BN169" s="36">
-        <v>8.1</v>
-      </c>
+      <c r="BM169" s="33"/>
+      <c r="BN169" s="33"/>
     </row>
     <row r="170" spans="1:66">
-      <c r="A170" s="30"/>
-      <c r="B170" s="39" t="s">
+      <c r="A170" s="29"/>
+      <c r="B170" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C170" s="41">
-        <v>20</v>
-      </c>
-      <c r="D170" s="42">
-        <v>181246.2</v>
-      </c>
-      <c r="E170" s="41">
-        <v>22</v>
-      </c>
-      <c r="F170" s="42">
-        <v>226047.4</v>
-      </c>
-      <c r="G170" s="41">
-        <v>23</v>
-      </c>
-      <c r="H170" s="42">
-        <v>124642.6</v>
-      </c>
-      <c r="I170" s="41">
-        <v>24</v>
-      </c>
-      <c r="J170" s="42">
-        <v>220031.6</v>
-      </c>
-      <c r="K170" s="41">
-        <v>48</v>
-      </c>
-      <c r="L170" s="42">
-        <v>403438.8</v>
-      </c>
-      <c r="M170" s="41">
-        <v>50</v>
-      </c>
-      <c r="N170" s="42">
-        <v>1077181.1</v>
-      </c>
-      <c r="O170" s="41">
-        <v>59</v>
-      </c>
-      <c r="P170" s="42">
-        <v>747964.2</v>
-      </c>
-      <c r="Q170" s="41">
-        <v>46</v>
-      </c>
-      <c r="R170" s="42">
-        <v>526206.2</v>
-      </c>
-      <c r="S170" s="41">
-        <v>67</v>
-      </c>
-      <c r="T170" s="42">
-        <v>731747.6</v>
-      </c>
-      <c r="U170" s="41">
-        <v>80</v>
-      </c>
-      <c r="V170" s="42">
-        <v>1302913.5</v>
-      </c>
-      <c r="W170" s="41">
-        <v>102</v>
-      </c>
-      <c r="X170" s="42">
-        <v>1811517.8</v>
-      </c>
-      <c r="Y170" s="41">
-        <v>74</v>
-      </c>
-      <c r="Z170" s="42">
-        <v>154796.5</v>
-      </c>
-      <c r="AA170" s="41">
-        <v>72</v>
-      </c>
-      <c r="AB170" s="42">
-        <v>862621.3</v>
-      </c>
-      <c r="AC170" s="41">
-        <v>121</v>
-      </c>
-      <c r="AD170" s="42">
-        <v>2979598.9</v>
-      </c>
-      <c r="AE170" s="41">
-        <v>104</v>
-      </c>
-      <c r="AF170" s="42">
-        <v>651632.1</v>
-      </c>
-      <c r="AG170" s="41">
-        <v>152</v>
-      </c>
-      <c r="AH170" s="42">
-        <v>1338529.5</v>
-      </c>
-      <c r="AI170" s="41">
-        <v>121</v>
-      </c>
-      <c r="AJ170" s="42">
-        <v>689738.1</v>
-      </c>
-      <c r="AK170" s="41">
-        <v>136</v>
-      </c>
-      <c r="AL170" s="42">
-        <v>4681296.7</v>
-      </c>
-      <c r="AM170" s="41">
-        <v>137</v>
-      </c>
-      <c r="AN170" s="42">
-        <v>769821</v>
-      </c>
-      <c r="AO170" s="41">
-        <v>149</v>
-      </c>
-      <c r="AP170" s="42">
-        <v>4781199.6</v>
-      </c>
-      <c r="AQ170" s="41">
-        <v>455</v>
-      </c>
-      <c r="AR170" s="42">
-        <v>1302276.9</v>
-      </c>
-      <c r="AS170" s="41">
-        <v>457</v>
-      </c>
-      <c r="AT170" s="42">
-        <v>2179945.6</v>
-      </c>
-      <c r="AU170" s="41">
-        <v>520</v>
-      </c>
-      <c r="AV170" s="42">
-        <v>2573885.7</v>
-      </c>
-      <c r="AW170" s="41">
-        <v>1004</v>
-      </c>
-      <c r="AX170" s="42">
-        <v>2566571.3</v>
-      </c>
-      <c r="AY170" s="41">
-        <v>897</v>
-      </c>
-      <c r="AZ170" s="42">
-        <v>3983185.4</v>
-      </c>
-      <c r="BA170" s="41">
-        <v>1604</v>
-      </c>
-      <c r="BB170" s="42">
-        <v>2326820.1</v>
-      </c>
-      <c r="BC170" s="41">
-        <v>3209</v>
-      </c>
-      <c r="BD170" s="42">
-        <v>2984006.3</v>
-      </c>
-      <c r="BE170" s="41">
-        <v>3499</v>
-      </c>
-      <c r="BF170" s="42">
-        <v>3817033.3</v>
-      </c>
-      <c r="BG170" s="41">
-        <v>3346</v>
-      </c>
-      <c r="BH170" s="42">
-        <v>2321027.9</v>
-      </c>
-      <c r="BI170" s="41">
-        <v>5286</v>
-      </c>
-      <c r="BJ170" s="42">
-        <v>3655489.9</v>
-      </c>
-      <c r="BK170" s="41">
-        <v>9275</v>
-      </c>
-      <c r="BL170" s="42">
-        <v>2232489</v>
-      </c>
-      <c r="BM170" s="41">
-        <v>7465</v>
-      </c>
-      <c r="BN170" s="42">
-        <v>2897163.4</v>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="33"/>
+      <c r="J170" s="33"/>
+      <c r="K170" s="33"/>
+      <c r="L170" s="33"/>
+      <c r="M170" s="33"/>
+      <c r="N170" s="33"/>
+      <c r="O170" s="33"/>
+      <c r="P170" s="33"/>
+      <c r="Q170" s="33"/>
+      <c r="R170" s="33"/>
+      <c r="S170" s="33"/>
+      <c r="T170" s="33"/>
+      <c r="U170" s="33"/>
+      <c r="V170" s="33"/>
+      <c r="W170" s="33"/>
+      <c r="X170" s="33"/>
+      <c r="Y170" s="33"/>
+      <c r="Z170" s="33"/>
+      <c r="AA170" s="33"/>
+      <c r="AB170" s="33"/>
+      <c r="AC170" s="33"/>
+      <c r="AD170" s="33"/>
+      <c r="AE170" s="33"/>
+      <c r="AF170" s="33"/>
+      <c r="AG170" s="33"/>
+      <c r="AH170" s="33"/>
+      <c r="AI170" s="33"/>
+      <c r="AJ170" s="33"/>
+      <c r="AK170" s="33"/>
+      <c r="AL170" s="33"/>
+      <c r="AM170" s="33"/>
+      <c r="AN170" s="33"/>
+      <c r="AO170" s="33"/>
+      <c r="AP170" s="33"/>
+      <c r="AQ170" s="33"/>
+      <c r="AR170" s="33"/>
+      <c r="AS170" s="33"/>
+      <c r="AT170" s="33"/>
+      <c r="AU170" s="33"/>
+      <c r="AV170" s="33"/>
+      <c r="AW170" s="33"/>
+      <c r="AX170" s="33"/>
+      <c r="AY170" s="33"/>
+      <c r="AZ170" s="33"/>
+      <c r="BA170" s="33"/>
+      <c r="BB170" s="33"/>
+      <c r="BC170" s="33"/>
+      <c r="BD170" s="33"/>
+      <c r="BE170" s="33"/>
+      <c r="BF170" s="33"/>
+      <c r="BG170" s="33"/>
+      <c r="BH170" s="33"/>
+      <c r="BI170" s="33"/>
+      <c r="BJ170" s="33"/>
+      <c r="BK170" s="33"/>
+      <c r="BL170" s="33"/>
+      <c r="BM170" s="35">
+        <v>6</v>
+      </c>
+      <c r="BN170" s="36">
+        <v>10.5</v>
       </c>
     </row>
     <row r="171" spans="1:66">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="30"/>
+      <c r="B171" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="B171" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C171" s="35">
-        <v>2</v>
-      </c>
-      <c r="D171" s="36">
-        <v>14327</v>
-      </c>
-      <c r="E171" s="35">
-        <v>11</v>
-      </c>
-      <c r="F171" s="36">
-        <v>114279.1</v>
-      </c>
-      <c r="G171" s="35">
-        <v>6</v>
-      </c>
-      <c r="H171" s="36">
-        <v>17529.7</v>
-      </c>
-      <c r="I171" s="35">
-        <v>10</v>
-      </c>
-      <c r="J171" s="36">
-        <v>547507.8</v>
-      </c>
-      <c r="K171" s="35">
-        <v>43</v>
-      </c>
-      <c r="L171" s="36">
-        <v>591335.2</v>
-      </c>
-      <c r="M171" s="35">
+      <c r="C171" s="41">
+        <v>20</v>
+      </c>
+      <c r="D171" s="42">
+        <v>181246.2</v>
+      </c>
+      <c r="E171" s="41">
+        <v>22</v>
+      </c>
+      <c r="F171" s="42">
+        <v>226047.4</v>
+      </c>
+      <c r="G171" s="41">
+        <v>23</v>
+      </c>
+      <c r="H171" s="42">
+        <v>124642.6</v>
+      </c>
+      <c r="I171" s="41">
         <v>24</v>
       </c>
-      <c r="N171" s="36">
-        <v>2741752</v>
-      </c>
-      <c r="O171" s="35">
-        <v>32</v>
-      </c>
-      <c r="P171" s="36">
-        <v>668514.2</v>
-      </c>
-      <c r="Q171" s="35">
-        <v>44</v>
-      </c>
-      <c r="R171" s="36">
-        <v>358958.9</v>
-      </c>
-      <c r="S171" s="35">
-        <v>61</v>
-      </c>
-      <c r="T171" s="36">
-        <v>727635.4</v>
-      </c>
-      <c r="U171" s="35">
-        <v>57</v>
-      </c>
-      <c r="V171" s="36">
-        <v>1033101.8</v>
-      </c>
-      <c r="W171" s="35">
-        <v>101</v>
-      </c>
-      <c r="X171" s="36">
-        <v>4632473</v>
-      </c>
-      <c r="Y171" s="35">
-        <v>83</v>
-      </c>
-      <c r="Z171" s="36">
-        <v>2470226.3</v>
-      </c>
-      <c r="AA171" s="35">
-        <v>85</v>
-      </c>
-      <c r="AB171" s="36">
-        <v>852938.1</v>
-      </c>
-      <c r="AC171" s="35">
+      <c r="J171" s="42">
+        <v>220031.6</v>
+      </c>
+      <c r="K171" s="41">
+        <v>48</v>
+      </c>
+      <c r="L171" s="42">
+        <v>403438.8</v>
+      </c>
+      <c r="M171" s="41">
+        <v>50</v>
+      </c>
+      <c r="N171" s="42">
+        <v>1077181.1</v>
+      </c>
+      <c r="O171" s="41">
+        <v>59</v>
+      </c>
+      <c r="P171" s="42">
+        <v>747964.2</v>
+      </c>
+      <c r="Q171" s="41">
+        <v>46</v>
+      </c>
+      <c r="R171" s="42">
+        <v>526206.2</v>
+      </c>
+      <c r="S171" s="41">
+        <v>67</v>
+      </c>
+      <c r="T171" s="42">
+        <v>731747.6</v>
+      </c>
+      <c r="U171" s="41">
+        <v>80</v>
+      </c>
+      <c r="V171" s="42">
+        <v>1302913.5</v>
+      </c>
+      <c r="W171" s="41">
+        <v>102</v>
+      </c>
+      <c r="X171" s="42">
+        <v>1811517.8</v>
+      </c>
+      <c r="Y171" s="41">
+        <v>74</v>
+      </c>
+      <c r="Z171" s="42">
+        <v>154796.5</v>
+      </c>
+      <c r="AA171" s="41">
+        <v>72</v>
+      </c>
+      <c r="AB171" s="42">
+        <v>862621.3</v>
+      </c>
+      <c r="AC171" s="41">
+        <v>121</v>
+      </c>
+      <c r="AD171" s="42">
+        <v>2979598.9</v>
+      </c>
+      <c r="AE171" s="41">
         <v>104</v>
       </c>
-      <c r="AD171" s="36">
-        <v>409727.6</v>
-      </c>
-      <c r="AE171" s="35">
-        <v>104</v>
-      </c>
-      <c r="AF171" s="36">
-        <v>443840.3</v>
-      </c>
-      <c r="AG171" s="35">
-        <v>182</v>
-      </c>
-      <c r="AH171" s="36">
-        <v>2088639.9</v>
-      </c>
-      <c r="AI171" s="35">
-        <v>200</v>
-      </c>
-      <c r="AJ171" s="36">
-        <v>1615011</v>
-      </c>
-      <c r="AK171" s="35">
-        <v>188</v>
-      </c>
-      <c r="AL171" s="36">
-        <v>1860508.2</v>
-      </c>
-      <c r="AM171" s="35">
-        <v>185</v>
-      </c>
-      <c r="AN171" s="36">
-        <v>5851096.4</v>
-      </c>
-      <c r="AO171" s="35">
-        <v>254</v>
-      </c>
-      <c r="AP171" s="36">
-        <v>4037266.8</v>
-      </c>
-      <c r="AQ171" s="35">
-        <v>608</v>
-      </c>
-      <c r="AR171" s="36">
-        <v>3830434.8</v>
-      </c>
-      <c r="AS171" s="35">
-        <v>824</v>
-      </c>
-      <c r="AT171" s="36">
-        <v>5825957.4</v>
-      </c>
-      <c r="AU171" s="35">
-        <v>1164</v>
-      </c>
-      <c r="AV171" s="36">
-        <v>6811768.2</v>
-      </c>
-      <c r="AW171" s="35">
-        <v>2589</v>
-      </c>
-      <c r="AX171" s="36">
-        <v>7467375</v>
-      </c>
-      <c r="AY171" s="35">
-        <v>2205</v>
-      </c>
-      <c r="AZ171" s="36">
-        <v>7619392.2</v>
-      </c>
-      <c r="BA171" s="35">
-        <v>4042</v>
-      </c>
-      <c r="BB171" s="36">
-        <v>9734007.1</v>
-      </c>
-      <c r="BC171" s="33"/>
-      <c r="BD171" s="33"/>
-      <c r="BE171" s="33"/>
-      <c r="BF171" s="33"/>
-      <c r="BG171" s="33"/>
-      <c r="BH171" s="33"/>
-      <c r="BI171" s="33"/>
-      <c r="BJ171" s="33"/>
-      <c r="BK171" s="33"/>
-      <c r="BL171" s="33"/>
-      <c r="BM171" s="33"/>
-      <c r="BN171" s="33"/>
+      <c r="AF171" s="42">
+        <v>651632.1</v>
+      </c>
+      <c r="AG171" s="41">
+        <v>152</v>
+      </c>
+      <c r="AH171" s="42">
+        <v>1338529.5</v>
+      </c>
+      <c r="AI171" s="41">
+        <v>121</v>
+      </c>
+      <c r="AJ171" s="42">
+        <v>689738.1</v>
+      </c>
+      <c r="AK171" s="41">
+        <v>136</v>
+      </c>
+      <c r="AL171" s="42">
+        <v>4681296.7</v>
+      </c>
+      <c r="AM171" s="41">
+        <v>137</v>
+      </c>
+      <c r="AN171" s="42">
+        <v>769821</v>
+      </c>
+      <c r="AO171" s="41">
+        <v>149</v>
+      </c>
+      <c r="AP171" s="42">
+        <v>4781199.6</v>
+      </c>
+      <c r="AQ171" s="41">
+        <v>455</v>
+      </c>
+      <c r="AR171" s="42">
+        <v>1302276.9</v>
+      </c>
+      <c r="AS171" s="41">
+        <v>457</v>
+      </c>
+      <c r="AT171" s="42">
+        <v>2179945.6</v>
+      </c>
+      <c r="AU171" s="41">
+        <v>520</v>
+      </c>
+      <c r="AV171" s="42">
+        <v>2573885.7</v>
+      </c>
+      <c r="AW171" s="41">
+        <v>1004</v>
+      </c>
+      <c r="AX171" s="42">
+        <v>2566571.3</v>
+      </c>
+      <c r="AY171" s="41">
+        <v>897</v>
+      </c>
+      <c r="AZ171" s="42">
+        <v>3983185.4</v>
+      </c>
+      <c r="BA171" s="41">
+        <v>1604</v>
+      </c>
+      <c r="BB171" s="42">
+        <v>2326820.1</v>
+      </c>
+      <c r="BC171" s="41">
+        <v>3209</v>
+      </c>
+      <c r="BD171" s="42">
+        <v>2984006.3</v>
+      </c>
+      <c r="BE171" s="41">
+        <v>3499</v>
+      </c>
+      <c r="BF171" s="42">
+        <v>3817033.3</v>
+      </c>
+      <c r="BG171" s="41">
+        <v>3346</v>
+      </c>
+      <c r="BH171" s="42">
+        <v>2321027.9</v>
+      </c>
+      <c r="BI171" s="41">
+        <v>5286</v>
+      </c>
+      <c r="BJ171" s="42">
+        <v>3655489.9</v>
+      </c>
+      <c r="BK171" s="41">
+        <v>9275</v>
+      </c>
+      <c r="BL171" s="42">
+        <v>2232489</v>
+      </c>
+      <c r="BM171" s="41">
+        <v>5096</v>
+      </c>
+      <c r="BN171" s="42">
+        <v>3452960.4</v>
+      </c>
     </row>
     <row r="172" spans="1:66">
-      <c r="A172" s="29"/>
+      <c r="A172" s="32" t="s">
+        <v>207</v>
+      </c>
       <c r="B172" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="33"/>
-      <c r="K172" s="33"/>
-      <c r="L172" s="33"/>
-      <c r="M172" s="33"/>
-      <c r="N172" s="33"/>
-      <c r="O172" s="33"/>
-      <c r="P172" s="33"/>
-      <c r="Q172" s="33"/>
-      <c r="R172" s="33"/>
-      <c r="S172" s="33"/>
-      <c r="T172" s="33"/>
-      <c r="U172" s="33"/>
-      <c r="V172" s="33"/>
-      <c r="W172" s="33"/>
-      <c r="X172" s="33"/>
-      <c r="Y172" s="33"/>
-      <c r="Z172" s="33"/>
+      <c r="C172" s="35">
+        <v>2</v>
+      </c>
+      <c r="D172" s="36">
+        <v>14327</v>
+      </c>
+      <c r="E172" s="35">
+        <v>11</v>
+      </c>
+      <c r="F172" s="36">
+        <v>114279.1</v>
+      </c>
+      <c r="G172" s="35">
+        <v>6</v>
+      </c>
+      <c r="H172" s="36">
+        <v>17529.7</v>
+      </c>
+      <c r="I172" s="35">
+        <v>10</v>
+      </c>
+      <c r="J172" s="36">
+        <v>547507.8</v>
+      </c>
+      <c r="K172" s="35">
+        <v>43</v>
+      </c>
+      <c r="L172" s="36">
+        <v>591335.2</v>
+      </c>
+      <c r="M172" s="35">
+        <v>24</v>
+      </c>
+      <c r="N172" s="36">
+        <v>2741752</v>
+      </c>
+      <c r="O172" s="35">
+        <v>32</v>
+      </c>
+      <c r="P172" s="36">
+        <v>668514.2</v>
+      </c>
+      <c r="Q172" s="35">
+        <v>44</v>
+      </c>
+      <c r="R172" s="36">
+        <v>358958.9</v>
+      </c>
+      <c r="S172" s="35">
+        <v>61</v>
+      </c>
+      <c r="T172" s="36">
+        <v>727635.4</v>
+      </c>
+      <c r="U172" s="35">
+        <v>57</v>
+      </c>
+      <c r="V172" s="36">
+        <v>1033101.8</v>
+      </c>
+      <c r="W172" s="35">
+        <v>101</v>
+      </c>
+      <c r="X172" s="36">
+        <v>4632473</v>
+      </c>
+      <c r="Y172" s="35">
+        <v>83</v>
+      </c>
+      <c r="Z172" s="36">
+        <v>2470226.3</v>
+      </c>
       <c r="AA172" s="35">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="AB172" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC172" s="33"/>
-      <c r="AD172" s="33"/>
-      <c r="AE172" s="33"/>
-      <c r="AF172" s="33"/>
-      <c r="AG172" s="33"/>
-      <c r="AH172" s="33"/>
-      <c r="AI172" s="33"/>
-      <c r="AJ172" s="33"/>
-      <c r="AK172" s="33"/>
-      <c r="AL172" s="33"/>
-      <c r="AM172" s="33"/>
-      <c r="AN172" s="33"/>
-      <c r="AO172" s="33"/>
-      <c r="AP172" s="33"/>
-      <c r="AQ172" s="33"/>
-      <c r="AR172" s="33"/>
-      <c r="AS172" s="33"/>
-      <c r="AT172" s="33"/>
-      <c r="AU172" s="33"/>
-      <c r="AV172" s="33"/>
-      <c r="AW172" s="33"/>
-      <c r="AX172" s="33"/>
-      <c r="AY172" s="33"/>
-      <c r="AZ172" s="33"/>
-      <c r="BA172" s="33"/>
-      <c r="BB172" s="33"/>
+        <v>852938.1</v>
+      </c>
+      <c r="AC172" s="35">
+        <v>104</v>
+      </c>
+      <c r="AD172" s="36">
+        <v>409727.6</v>
+      </c>
+      <c r="AE172" s="35">
+        <v>104</v>
+      </c>
+      <c r="AF172" s="36">
+        <v>443840.3</v>
+      </c>
+      <c r="AG172" s="35">
+        <v>182</v>
+      </c>
+      <c r="AH172" s="36">
+        <v>2088639.9</v>
+      </c>
+      <c r="AI172" s="35">
+        <v>200</v>
+      </c>
+      <c r="AJ172" s="36">
+        <v>1615011</v>
+      </c>
+      <c r="AK172" s="35">
+        <v>188</v>
+      </c>
+      <c r="AL172" s="36">
+        <v>1860508.2</v>
+      </c>
+      <c r="AM172" s="35">
+        <v>185</v>
+      </c>
+      <c r="AN172" s="36">
+        <v>5851096.4</v>
+      </c>
+      <c r="AO172" s="35">
+        <v>254</v>
+      </c>
+      <c r="AP172" s="36">
+        <v>4037266.8</v>
+      </c>
+      <c r="AQ172" s="35">
+        <v>608</v>
+      </c>
+      <c r="AR172" s="36">
+        <v>3830434.8</v>
+      </c>
+      <c r="AS172" s="35">
+        <v>824</v>
+      </c>
+      <c r="AT172" s="36">
+        <v>5825957.4</v>
+      </c>
+      <c r="AU172" s="35">
+        <v>1164</v>
+      </c>
+      <c r="AV172" s="36">
+        <v>6811768.2</v>
+      </c>
+      <c r="AW172" s="35">
+        <v>2589</v>
+      </c>
+      <c r="AX172" s="36">
+        <v>7467375</v>
+      </c>
+      <c r="AY172" s="35">
+        <v>2205</v>
+      </c>
+      <c r="AZ172" s="36">
+        <v>7619392.2</v>
+      </c>
+      <c r="BA172" s="35">
+        <v>4042</v>
+      </c>
+      <c r="BB172" s="36">
+        <v>9734007.1</v>
+      </c>
       <c r="BC172" s="33"/>
       <c r="BD172" s="33"/>
       <c r="BE172" s="33"/>
@@ -26805,386 +26835,460 @@
       <c r="BN172" s="33"/>
     </row>
     <row r="173" spans="1:66">
-      <c r="A173" s="30"/>
-      <c r="B173" s="39" t="s">
+      <c r="A173" s="29"/>
+      <c r="B173" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C173" s="41">
-        <v>2</v>
-      </c>
-      <c r="D173" s="42">
-        <v>14327</v>
-      </c>
-      <c r="E173" s="41">
-        <v>11</v>
-      </c>
-      <c r="F173" s="42">
-        <v>114279.1</v>
-      </c>
-      <c r="G173" s="41">
-        <v>6</v>
-      </c>
-      <c r="H173" s="42">
-        <v>17529.7</v>
-      </c>
-      <c r="I173" s="41">
-        <v>10</v>
-      </c>
-      <c r="J173" s="42">
-        <v>547507.8</v>
-      </c>
-      <c r="K173" s="41">
-        <v>43</v>
-      </c>
-      <c r="L173" s="42">
-        <v>591335.2</v>
-      </c>
-      <c r="M173" s="41">
-        <v>24</v>
-      </c>
-      <c r="N173" s="42">
-        <v>2741752</v>
-      </c>
-      <c r="O173" s="41">
-        <v>32</v>
-      </c>
-      <c r="P173" s="42">
-        <v>668514.2</v>
-      </c>
-      <c r="Q173" s="41">
-        <v>44</v>
-      </c>
-      <c r="R173" s="42">
-        <v>358958.9</v>
-      </c>
-      <c r="S173" s="41">
-        <v>61</v>
-      </c>
-      <c r="T173" s="42">
-        <v>727635.4</v>
-      </c>
-      <c r="U173" s="41">
-        <v>57</v>
-      </c>
-      <c r="V173" s="42">
-        <v>1033101.8</v>
-      </c>
-      <c r="W173" s="41">
-        <v>101</v>
-      </c>
-      <c r="X173" s="42">
-        <v>4632473</v>
-      </c>
-      <c r="Y173" s="41">
-        <v>83</v>
-      </c>
-      <c r="Z173" s="42">
-        <v>2470226.3</v>
-      </c>
-      <c r="AA173" s="41">
-        <v>86</v>
-      </c>
-      <c r="AB173" s="42">
-        <v>852938.1</v>
-      </c>
-      <c r="AC173" s="41">
-        <v>104</v>
-      </c>
-      <c r="AD173" s="42">
-        <v>409727.6</v>
-      </c>
-      <c r="AE173" s="41">
-        <v>104</v>
-      </c>
-      <c r="AF173" s="42">
-        <v>443840.3</v>
-      </c>
-      <c r="AG173" s="41">
-        <v>182</v>
-      </c>
-      <c r="AH173" s="42">
-        <v>2088639.9</v>
-      </c>
-      <c r="AI173" s="41">
-        <v>200</v>
-      </c>
-      <c r="AJ173" s="42">
-        <v>1615011</v>
-      </c>
-      <c r="AK173" s="41">
-        <v>188</v>
-      </c>
-      <c r="AL173" s="42">
-        <v>1860508.2</v>
-      </c>
-      <c r="AM173" s="41">
-        <v>185</v>
-      </c>
-      <c r="AN173" s="42">
-        <v>5851096.4</v>
-      </c>
-      <c r="AO173" s="41">
-        <v>254</v>
-      </c>
-      <c r="AP173" s="42">
-        <v>4037266.8</v>
-      </c>
-      <c r="AQ173" s="41">
-        <v>608</v>
-      </c>
-      <c r="AR173" s="42">
-        <v>3830434.8</v>
-      </c>
-      <c r="AS173" s="41">
-        <v>824</v>
-      </c>
-      <c r="AT173" s="42">
-        <v>5825957.4</v>
-      </c>
-      <c r="AU173" s="41">
-        <v>1164</v>
-      </c>
-      <c r="AV173" s="42">
-        <v>6811768.2</v>
-      </c>
-      <c r="AW173" s="41">
-        <v>2589</v>
-      </c>
-      <c r="AX173" s="42">
-        <v>7467375</v>
-      </c>
-      <c r="AY173" s="41">
-        <v>2205</v>
-      </c>
-      <c r="AZ173" s="42">
-        <v>7619392.2</v>
-      </c>
-      <c r="BA173" s="41">
-        <v>4042</v>
-      </c>
-      <c r="BB173" s="42">
-        <v>9734007.1</v>
-      </c>
-      <c r="BC173" s="40"/>
-      <c r="BD173" s="40"/>
-      <c r="BE173" s="40"/>
-      <c r="BF173" s="40"/>
-      <c r="BG173" s="40"/>
-      <c r="BH173" s="40"/>
-      <c r="BI173" s="40"/>
-      <c r="BJ173" s="40"/>
-      <c r="BK173" s="40"/>
-      <c r="BL173" s="40"/>
-      <c r="BM173" s="40"/>
-      <c r="BN173" s="40"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="33"/>
+      <c r="J173" s="33"/>
+      <c r="K173" s="33"/>
+      <c r="L173" s="33"/>
+      <c r="M173" s="33"/>
+      <c r="N173" s="33"/>
+      <c r="O173" s="33"/>
+      <c r="P173" s="33"/>
+      <c r="Q173" s="33"/>
+      <c r="R173" s="33"/>
+      <c r="S173" s="33"/>
+      <c r="T173" s="33"/>
+      <c r="U173" s="33"/>
+      <c r="V173" s="33"/>
+      <c r="W173" s="33"/>
+      <c r="X173" s="33"/>
+      <c r="Y173" s="33"/>
+      <c r="Z173" s="33"/>
+      <c r="AA173" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB173" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC173" s="33"/>
+      <c r="AD173" s="33"/>
+      <c r="AE173" s="33"/>
+      <c r="AF173" s="33"/>
+      <c r="AG173" s="33"/>
+      <c r="AH173" s="33"/>
+      <c r="AI173" s="33"/>
+      <c r="AJ173" s="33"/>
+      <c r="AK173" s="33"/>
+      <c r="AL173" s="33"/>
+      <c r="AM173" s="33"/>
+      <c r="AN173" s="33"/>
+      <c r="AO173" s="33"/>
+      <c r="AP173" s="33"/>
+      <c r="AQ173" s="33"/>
+      <c r="AR173" s="33"/>
+      <c r="AS173" s="33"/>
+      <c r="AT173" s="33"/>
+      <c r="AU173" s="33"/>
+      <c r="AV173" s="33"/>
+      <c r="AW173" s="33"/>
+      <c r="AX173" s="33"/>
+      <c r="AY173" s="33"/>
+      <c r="AZ173" s="33"/>
+      <c r="BA173" s="33"/>
+      <c r="BB173" s="33"/>
+      <c r="BC173" s="33"/>
+      <c r="BD173" s="33"/>
+      <c r="BE173" s="33"/>
+      <c r="BF173" s="33"/>
+      <c r="BG173" s="33"/>
+      <c r="BH173" s="33"/>
+      <c r="BI173" s="33"/>
+      <c r="BJ173" s="33"/>
+      <c r="BK173" s="33"/>
+      <c r="BL173" s="33"/>
+      <c r="BM173" s="33"/>
+      <c r="BN173" s="33"/>
     </row>
     <row r="174" spans="1:66">
-      <c r="A174" s="46" t="s">
+      <c r="A174" s="30"/>
+      <c r="B174" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="B174" s="45"/>
-      <c r="C174" s="48">
+      <c r="C174" s="41">
+        <v>2</v>
+      </c>
+      <c r="D174" s="42">
+        <v>14327</v>
+      </c>
+      <c r="E174" s="41">
+        <v>11</v>
+      </c>
+      <c r="F174" s="42">
+        <v>114279.1</v>
+      </c>
+      <c r="G174" s="41">
+        <v>6</v>
+      </c>
+      <c r="H174" s="42">
+        <v>17529.7</v>
+      </c>
+      <c r="I174" s="41">
+        <v>10</v>
+      </c>
+      <c r="J174" s="42">
+        <v>547507.8</v>
+      </c>
+      <c r="K174" s="41">
+        <v>43</v>
+      </c>
+      <c r="L174" s="42">
+        <v>591335.2</v>
+      </c>
+      <c r="M174" s="41">
+        <v>24</v>
+      </c>
+      <c r="N174" s="42">
+        <v>2741752</v>
+      </c>
+      <c r="O174" s="41">
+        <v>32</v>
+      </c>
+      <c r="P174" s="42">
+        <v>668514.2</v>
+      </c>
+      <c r="Q174" s="41">
+        <v>44</v>
+      </c>
+      <c r="R174" s="42">
+        <v>358958.9</v>
+      </c>
+      <c r="S174" s="41">
+        <v>61</v>
+      </c>
+      <c r="T174" s="42">
+        <v>727635.4</v>
+      </c>
+      <c r="U174" s="41">
+        <v>57</v>
+      </c>
+      <c r="V174" s="42">
+        <v>1033101.8</v>
+      </c>
+      <c r="W174" s="41">
+        <v>101</v>
+      </c>
+      <c r="X174" s="42">
+        <v>4632473</v>
+      </c>
+      <c r="Y174" s="41">
+        <v>83</v>
+      </c>
+      <c r="Z174" s="42">
+        <v>2470226.3</v>
+      </c>
+      <c r="AA174" s="41">
+        <v>86</v>
+      </c>
+      <c r="AB174" s="42">
+        <v>852938.1</v>
+      </c>
+      <c r="AC174" s="41">
+        <v>104</v>
+      </c>
+      <c r="AD174" s="42">
+        <v>409727.6</v>
+      </c>
+      <c r="AE174" s="41">
+        <v>104</v>
+      </c>
+      <c r="AF174" s="42">
+        <v>443840.3</v>
+      </c>
+      <c r="AG174" s="41">
+        <v>182</v>
+      </c>
+      <c r="AH174" s="42">
+        <v>2088639.9</v>
+      </c>
+      <c r="AI174" s="41">
+        <v>200</v>
+      </c>
+      <c r="AJ174" s="42">
+        <v>1615011</v>
+      </c>
+      <c r="AK174" s="41">
+        <v>188</v>
+      </c>
+      <c r="AL174" s="42">
+        <v>1860508.2</v>
+      </c>
+      <c r="AM174" s="41">
+        <v>185</v>
+      </c>
+      <c r="AN174" s="42">
+        <v>5851096.4</v>
+      </c>
+      <c r="AO174" s="41">
+        <v>254</v>
+      </c>
+      <c r="AP174" s="42">
+        <v>4037266.8</v>
+      </c>
+      <c r="AQ174" s="41">
+        <v>608</v>
+      </c>
+      <c r="AR174" s="42">
+        <v>3830434.8</v>
+      </c>
+      <c r="AS174" s="41">
+        <v>824</v>
+      </c>
+      <c r="AT174" s="42">
+        <v>5825957.4</v>
+      </c>
+      <c r="AU174" s="41">
+        <v>1164</v>
+      </c>
+      <c r="AV174" s="42">
+        <v>6811768.2</v>
+      </c>
+      <c r="AW174" s="41">
+        <v>2589</v>
+      </c>
+      <c r="AX174" s="42">
+        <v>7467375</v>
+      </c>
+      <c r="AY174" s="41">
+        <v>2205</v>
+      </c>
+      <c r="AZ174" s="42">
+        <v>7619392.2</v>
+      </c>
+      <c r="BA174" s="41">
+        <v>4042</v>
+      </c>
+      <c r="BB174" s="42">
+        <v>9734007.1</v>
+      </c>
+      <c r="BC174" s="40"/>
+      <c r="BD174" s="40"/>
+      <c r="BE174" s="40"/>
+      <c r="BF174" s="40"/>
+      <c r="BG174" s="40"/>
+      <c r="BH174" s="40"/>
+      <c r="BI174" s="40"/>
+      <c r="BJ174" s="40"/>
+      <c r="BK174" s="40"/>
+      <c r="BL174" s="40"/>
+      <c r="BM174" s="40"/>
+      <c r="BN174" s="40"/>
+    </row>
+    <row r="175" spans="1:66">
+      <c r="A175" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B175" s="45"/>
+      <c r="C175" s="48">
         <v>105</v>
       </c>
-      <c r="D174" s="49">
+      <c r="D175" s="49">
         <v>707915.5</v>
       </c>
-      <c r="E174" s="48">
+      <c r="E175" s="48">
         <v>153</v>
       </c>
-      <c r="F174" s="49">
+      <c r="F175" s="49">
         <v>1094448.5</v>
       </c>
-      <c r="G174" s="48">
+      <c r="G175" s="48">
         <v>160</v>
       </c>
-      <c r="H174" s="49">
+      <c r="H175" s="49">
         <v>4607252.5</v>
       </c>
-      <c r="I174" s="48">
+      <c r="I175" s="48">
         <v>187</v>
       </c>
-      <c r="J174" s="49">
+      <c r="J175" s="49">
         <v>13254194.6</v>
       </c>
-      <c r="K174" s="48">
+      <c r="K175" s="48">
         <v>398</v>
       </c>
-      <c r="L174" s="49">
+      <c r="L175" s="49">
         <v>13749214.9</v>
       </c>
-      <c r="M174" s="48">
+      <c r="M175" s="48">
         <v>294</v>
       </c>
-      <c r="N174" s="49">
+      <c r="N175" s="49">
         <v>7158692.8</v>
       </c>
-      <c r="O174" s="48">
+      <c r="O175" s="48">
         <v>366</v>
       </c>
-      <c r="P174" s="49">
+      <c r="P175" s="49">
         <v>6693664.5</v>
       </c>
-      <c r="Q174" s="48">
+      <c r="Q175" s="48">
         <v>336</v>
       </c>
-      <c r="R174" s="49">
+      <c r="R175" s="49">
         <v>34287921.4</v>
       </c>
-      <c r="S174" s="48">
+      <c r="S175" s="48">
         <v>423</v>
       </c>
-      <c r="T174" s="49">
+      <c r="T175" s="49">
         <v>12264220.4</v>
       </c>
-      <c r="U174" s="48">
+      <c r="U175" s="48">
         <v>509</v>
       </c>
-      <c r="V174" s="49">
+      <c r="V175" s="49">
         <v>35265575.1</v>
       </c>
-      <c r="W174" s="48">
+      <c r="W175" s="48">
         <v>658</v>
       </c>
-      <c r="X174" s="49">
+      <c r="X175" s="49">
         <v>11220410.9</v>
       </c>
-      <c r="Y174" s="48">
+      <c r="Y175" s="48">
         <v>468</v>
       </c>
-      <c r="Z174" s="49">
+      <c r="Z175" s="49">
         <v>7961767.4</v>
       </c>
-      <c r="AA174" s="48">
+      <c r="AA175" s="48">
         <v>477</v>
       </c>
-      <c r="AB174" s="49">
+      <c r="AB175" s="49">
         <v>3149255.3</v>
       </c>
-      <c r="AC174" s="48">
+      <c r="AC175" s="48">
         <v>612</v>
       </c>
-      <c r="AD174" s="49">
+      <c r="AD175" s="49">
         <v>6891846.1</v>
       </c>
-      <c r="AE174" s="48">
+      <c r="AE175" s="48">
         <v>609</v>
       </c>
-      <c r="AF174" s="49">
+      <c r="AF175" s="49">
         <v>3903290.7</v>
       </c>
-      <c r="AG174" s="48">
+      <c r="AG175" s="48">
         <v>927</v>
       </c>
-      <c r="AH174" s="49">
+      <c r="AH175" s="49">
         <v>8985348.3</v>
       </c>
-      <c r="AI174" s="48">
+      <c r="AI175" s="48">
         <v>895</v>
       </c>
-      <c r="AJ174" s="49">
+      <c r="AJ175" s="49">
         <v>6063886.3</v>
       </c>
-      <c r="AK174" s="48">
+      <c r="AK175" s="48">
         <v>1002</v>
       </c>
-      <c r="AL174" s="49">
+      <c r="AL175" s="49">
         <v>10409083.8</v>
       </c>
-      <c r="AM174" s="48">
+      <c r="AM175" s="48">
         <v>1148</v>
       </c>
-      <c r="AN174" s="49">
+      <c r="AN175" s="49">
         <v>17561060.4</v>
       </c>
-      <c r="AO174" s="48">
+      <c r="AO175" s="48">
         <v>1244</v>
       </c>
-      <c r="AP174" s="49">
+      <c r="AP175" s="49">
         <v>12574517.2</v>
       </c>
-      <c r="AQ174" s="48">
+      <c r="AQ175" s="48">
         <v>3069</v>
       </c>
-      <c r="AR174" s="49">
+      <c r="AR175" s="49">
         <v>16214772.3</v>
       </c>
-      <c r="AS174" s="48">
+      <c r="AS175" s="48">
         <v>3614</v>
       </c>
-      <c r="AT174" s="49">
+      <c r="AT175" s="49">
         <v>19474531.5</v>
       </c>
-      <c r="AU174" s="48">
+      <c r="AU175" s="48">
         <v>4579</v>
       </c>
-      <c r="AV174" s="49">
+      <c r="AV175" s="49">
         <v>24564670.2</v>
       </c>
-      <c r="AW174" s="48">
+      <c r="AW175" s="48">
         <v>9611</v>
       </c>
-      <c r="AX174" s="49">
+      <c r="AX175" s="49">
         <v>28616269.7</v>
       </c>
-      <c r="AY174" s="48">
+      <c r="AY175" s="48">
         <v>8885</v>
       </c>
-      <c r="AZ174" s="49">
+      <c r="AZ175" s="49">
         <v>28529698.5</v>
       </c>
-      <c r="BA174" s="48">
+      <c r="BA175" s="48">
         <v>17738</v>
       </c>
-      <c r="BB174" s="49">
+      <c r="BB175" s="49">
         <v>29275940.8</v>
       </c>
-      <c r="BC174" s="48">
+      <c r="BC175" s="48">
         <v>25321</v>
       </c>
-      <c r="BD174" s="49">
+      <c r="BD175" s="49">
         <v>28964074.8</v>
       </c>
-      <c r="BE174" s="48">
+      <c r="BE175" s="48">
         <v>26257</v>
       </c>
-      <c r="BF174" s="49">
+      <c r="BF175" s="49">
         <v>32239751.8</v>
       </c>
-      <c r="BG174" s="48">
+      <c r="BG175" s="48">
         <v>21972</v>
       </c>
-      <c r="BH174" s="49">
+      <c r="BH175" s="49">
         <v>29307907.7</v>
       </c>
-      <c r="BI174" s="48">
+      <c r="BI175" s="48">
         <v>30354</v>
       </c>
-      <c r="BJ174" s="49">
+      <c r="BJ175" s="49">
         <v>28208760.7</v>
       </c>
-      <c r="BK174" s="48">
+      <c r="BK175" s="48">
         <v>56726</v>
       </c>
-      <c r="BL174" s="49">
+      <c r="BL175" s="49">
         <v>28666272.2</v>
       </c>
-      <c r="BM174" s="48">
-        <v>40733</v>
-      </c>
-      <c r="BN174" s="49">
-        <v>22721807.1</v>
+      <c r="BM175" s="48">
+        <v>27271</v>
+      </c>
+      <c r="BN175" s="49">
+        <v>31093069</v>
       </c>
     </row>
-    <row r="197" spans="1:45">
-      <c r="A197" s="17">
-        <v>44558</v>
-      </c>
-      <c r="W197" s="18">
-        <v>1</v>
-      </c>
-      <c r="AS197" s="19">
-        <v>0.89631944</v>
+    <row r="198" spans="1:45">
+      <c r="A198" s="17">
+        <v>44652</v>
+      </c>
+      <c r="W198" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS198" s="19">
+        <v>0.54244213</v>
       </c>
     </row>
   </sheetData>
@@ -27229,15 +27333,15 @@
     <mergeCell ref="A38:A81"/>
     <mergeCell ref="A82:A91"/>
     <mergeCell ref="A92:A121"/>
-    <mergeCell ref="A122:A170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:BN175"/>
-    <mergeCell ref="A176:AG196"/>
-    <mergeCell ref="AH176:BN196"/>
-    <mergeCell ref="A197:V197"/>
-    <mergeCell ref="W197:AR197"/>
-    <mergeCell ref="AS197:BN197"/>
+    <mergeCell ref="A122:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:BN176"/>
+    <mergeCell ref="A177:AG197"/>
+    <mergeCell ref="AH177:BN197"/>
+    <mergeCell ref="A198:V198"/>
+    <mergeCell ref="W198:AR198"/>
+    <mergeCell ref="AS198:BN198"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -27256,22 +27360,22 @@
     <row r="1" spans="1:7">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -27279,19 +27383,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>480639.500000</v>
+        <v>30509.900000</v>
       </c>
       <c r="C2">
         <v>654.900000</v>
       </c>
       <c r="D2">
+        <v>480639.500000</v>
+      </c>
+      <c r="E2">
+        <v>538.000000</v>
+      </c>
+      <c r="F2">
         <v>181246.200000</v>
-      </c>
-      <c r="E2">
-        <v>30509.900000</v>
-      </c>
-      <c r="F2">
-        <v>538.000000</v>
       </c>
       <c r="G2">
         <v>14327.000000</v>
@@ -27302,16 +27406,16 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>87588.500000</v>
+      </c>
+      <c r="D3">
         <v>664660.200000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1873.300000</v>
+      </c>
+      <c r="F3">
         <v>226047.400000</v>
-      </c>
-      <c r="E3">
-        <v>87588.500000</v>
-      </c>
-      <c r="F3">
-        <v>1873.300000</v>
       </c>
       <c r="G3">
         <v>114279.100000</v>
@@ -27322,16 +27426,16 @@
         <v>4</v>
       </c>
       <c r="B4">
+        <v>25796.000000</v>
+      </c>
+      <c r="D4">
         <v>4426146.300000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>13137.900000</v>
+      </c>
+      <c r="F4">
         <v>124642.600000</v>
-      </c>
-      <c r="E4">
-        <v>25796.000000</v>
-      </c>
-      <c r="F4">
-        <v>13137.900000</v>
       </c>
       <c r="G4">
         <v>17529.700000</v>
@@ -27342,19 +27446,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1290305.200000</v>
+        <v>11164050.100000</v>
       </c>
       <c r="C5">
         <v>9217.000000</v>
       </c>
       <c r="D5">
+        <v>1290305.200000</v>
+      </c>
+      <c r="E5">
+        <v>23082.900000</v>
+      </c>
+      <c r="F5">
         <v>220031.600000</v>
-      </c>
-      <c r="E5">
-        <v>11164050.100000</v>
-      </c>
-      <c r="F5">
-        <v>23082.900000</v>
       </c>
       <c r="G5">
         <v>547507.800000</v>
@@ -27365,16 +27469,16 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <v>269907.900000</v>
+      </c>
+      <c r="D6">
         <v>12466651.900000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>17881.100000</v>
+      </c>
+      <c r="F6">
         <v>403438.800000</v>
-      </c>
-      <c r="E6">
-        <v>269907.900000</v>
-      </c>
-      <c r="F6">
-        <v>17881.100000</v>
       </c>
       <c r="G6">
         <v>591335.200000</v>
@@ -27385,16 +27489,16 @@
         <v>7</v>
       </c>
       <c r="B7">
+        <v>293496.800000</v>
+      </c>
+      <c r="D7">
         <v>2993782.600000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>52480.300000</v>
+      </c>
+      <c r="F7">
         <v>1077181.100000</v>
-      </c>
-      <c r="E7">
-        <v>293496.800000</v>
-      </c>
-      <c r="F7">
-        <v>52480.300000</v>
       </c>
       <c r="G7">
         <v>2741752.000000</v>
@@ -27405,16 +27509,16 @@
         <v>8</v>
       </c>
       <c r="B8">
+        <v>327673.900000</v>
+      </c>
+      <c r="D8">
         <v>4850300.500000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>99211.700000</v>
+      </c>
+      <c r="F8">
         <v>747964.200000</v>
-      </c>
-      <c r="E8">
-        <v>327673.900000</v>
-      </c>
-      <c r="F8">
-        <v>99211.700000</v>
       </c>
       <c r="G8">
         <v>668514.200000</v>
@@ -27425,19 +27529,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1948743.100000</v>
+        <v>170849.800000</v>
       </c>
       <c r="C9">
         <v>31238127.000000</v>
       </c>
       <c r="D9">
+        <v>1948743.100000</v>
+      </c>
+      <c r="E9">
+        <v>45036.400000</v>
+      </c>
+      <c r="F9">
         <v>526206.200000</v>
-      </c>
-      <c r="E9">
-        <v>170849.800000</v>
-      </c>
-      <c r="F9">
-        <v>45036.400000</v>
       </c>
       <c r="G9">
         <v>358958.900000</v>
@@ -27448,16 +27552,16 @@
         <v>10</v>
       </c>
       <c r="B10">
+        <v>304103.700000</v>
+      </c>
+      <c r="D10">
         <v>10403977.300000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>96756.400000</v>
+      </c>
+      <c r="F10">
         <v>731747.600000</v>
-      </c>
-      <c r="E10">
-        <v>304103.700000</v>
-      </c>
-      <c r="F10">
-        <v>96756.400000</v>
       </c>
       <c r="G10">
         <v>727635.400000</v>
@@ -27468,19 +27572,19 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>32158949.300000</v>
+        <v>123354.500000</v>
       </c>
       <c r="C11">
         <v>257003.000000</v>
       </c>
       <c r="D11">
+        <v>32158949.300000</v>
+      </c>
+      <c r="E11">
+        <v>390253.000000</v>
+      </c>
+      <c r="F11">
         <v>1302913.500000</v>
-      </c>
-      <c r="E11">
-        <v>123354.500000</v>
-      </c>
-      <c r="F11">
-        <v>390253.000000</v>
       </c>
       <c r="G11">
         <v>1033101.800000</v>
@@ -27491,19 +27595,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3454111.800000</v>
+        <v>1199853.800000</v>
       </c>
       <c r="C12">
         <v>52834.100000</v>
       </c>
       <c r="D12">
+        <v>3454111.800000</v>
+      </c>
+      <c r="E12">
+        <v>69620.400000</v>
+      </c>
+      <c r="F12">
         <v>1811517.800000</v>
-      </c>
-      <c r="E12">
-        <v>1199853.800000</v>
-      </c>
-      <c r="F12">
-        <v>69620.400000</v>
       </c>
       <c r="G12">
         <v>4632473.000000</v>
@@ -27514,19 +27618,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4502090.200000</v>
+        <v>777583.900000</v>
       </c>
       <c r="C13">
         <v>10583.200000</v>
       </c>
       <c r="D13">
+        <v>4502090.200000</v>
+      </c>
+      <c r="E13">
+        <v>46487.300000</v>
+      </c>
+      <c r="F13">
         <v>154796.500000</v>
-      </c>
-      <c r="E13">
-        <v>777583.900000</v>
-      </c>
-      <c r="F13">
-        <v>46487.300000</v>
       </c>
       <c r="G13">
         <v>2470226.300000</v>
@@ -27537,19 +27641,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1019703.500000</v>
+        <v>77004.900000</v>
       </c>
       <c r="C14">
         <v>6253.200000</v>
       </c>
       <c r="D14">
+        <v>1019703.500000</v>
+      </c>
+      <c r="E14">
+        <v>330734.300000</v>
+      </c>
+      <c r="F14">
         <v>862621.300000</v>
-      </c>
-      <c r="E14">
-        <v>77004.900000</v>
-      </c>
-      <c r="F14">
-        <v>330734.300000</v>
       </c>
       <c r="G14">
         <v>852938.100000</v>
@@ -27560,19 +27664,19 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1494957.800000</v>
+        <v>154180.200000</v>
       </c>
       <c r="C15">
         <v>1847806.900000</v>
       </c>
       <c r="D15">
+        <v>1494957.800000</v>
+      </c>
+      <c r="E15">
+        <v>5574.700000</v>
+      </c>
+      <c r="F15">
         <v>2979598.900000</v>
-      </c>
-      <c r="E15">
-        <v>154180.200000</v>
-      </c>
-      <c r="F15">
-        <v>5574.700000</v>
       </c>
       <c r="G15">
         <v>409727.600000</v>
@@ -27583,19 +27687,19 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2158107.200000</v>
+        <v>246987.800000</v>
       </c>
       <c r="C16">
         <v>332560.300000</v>
       </c>
       <c r="D16">
+        <v>2158107.200000</v>
+      </c>
+      <c r="E16">
+        <v>70163.000000</v>
+      </c>
+      <c r="F16">
         <v>651632.100000</v>
-      </c>
-      <c r="E16">
-        <v>246987.800000</v>
-      </c>
-      <c r="F16">
-        <v>70163.000000</v>
       </c>
       <c r="G16">
         <v>443840.300000</v>
@@ -27606,19 +27710,19 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3743432.300000</v>
+        <v>743920.900000</v>
       </c>
       <c r="C17">
         <v>1013517.500000</v>
       </c>
       <c r="D17">
+        <v>3743432.300000</v>
+      </c>
+      <c r="E17">
+        <v>57308.200000</v>
+      </c>
+      <c r="F17">
         <v>1338529.500000</v>
-      </c>
-      <c r="E17">
-        <v>743920.900000</v>
-      </c>
-      <c r="F17">
-        <v>57308.200000</v>
       </c>
       <c r="G17">
         <v>2088639.900000</v>
@@ -27629,19 +27733,19 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2515155.100000</v>
+        <v>536436.100000</v>
       </c>
       <c r="C18">
         <v>698213.000000</v>
       </c>
       <c r="D18">
+        <v>2515155.100000</v>
+      </c>
+      <c r="E18">
+        <v>9333.000000</v>
+      </c>
+      <c r="F18">
         <v>689738.100000</v>
-      </c>
-      <c r="E18">
-        <v>536436.100000</v>
-      </c>
-      <c r="F18">
-        <v>9333.000000</v>
       </c>
       <c r="G18">
         <v>1615011.000000</v>
@@ -27652,19 +27756,19 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2653755.500000</v>
+        <v>506281.600000</v>
       </c>
       <c r="C19">
         <v>511084.800000</v>
       </c>
       <c r="D19">
+        <v>2653755.500000</v>
+      </c>
+      <c r="E19">
+        <v>196157.000000</v>
+      </c>
+      <c r="F19">
         <v>4681296.700000</v>
-      </c>
-      <c r="E19">
-        <v>506281.600000</v>
-      </c>
-      <c r="F19">
-        <v>196157.000000</v>
       </c>
       <c r="G19">
         <v>1860508.200000</v>
@@ -27675,19 +27779,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10267600.500000</v>
+        <v>438857.000000</v>
       </c>
       <c r="C20">
         <v>65963.400000</v>
       </c>
       <c r="D20">
+        <v>10267600.500000</v>
+      </c>
+      <c r="E20">
+        <v>167722.100000</v>
+      </c>
+      <c r="F20">
         <v>769821.000000</v>
-      </c>
-      <c r="E20">
-        <v>438857.000000</v>
-      </c>
-      <c r="F20">
-        <v>167722.100000</v>
       </c>
       <c r="G20">
         <v>5851096.400000</v>
@@ -27698,19 +27802,19 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2776966.800000</v>
+        <v>397922.900000</v>
       </c>
       <c r="C21">
         <v>495996.800000</v>
       </c>
       <c r="D21">
+        <v>2776966.800000</v>
+      </c>
+      <c r="E21">
+        <v>85164.300000</v>
+      </c>
+      <c r="F21">
         <v>4781199.600000</v>
-      </c>
-      <c r="E21">
-        <v>397922.900000</v>
-      </c>
-      <c r="F21">
-        <v>85164.300000</v>
       </c>
       <c r="G21">
         <v>4037266.800000</v>
@@ -27721,19 +27825,19 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>7977848.500000</v>
+        <v>2714986.000000</v>
       </c>
       <c r="C22">
         <v>149992.600000</v>
       </c>
       <c r="D22">
+        <v>7977848.500000</v>
+      </c>
+      <c r="E22">
+        <v>239233.500000</v>
+      </c>
+      <c r="F22">
         <v>1302276.900000</v>
-      </c>
-      <c r="E22">
-        <v>2714986.000000</v>
-      </c>
-      <c r="F22">
-        <v>239233.500000</v>
       </c>
       <c r="G22">
         <v>3830434.800000</v>
@@ -27744,19 +27848,19 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>9135458.300000</v>
+        <v>2018905.700000</v>
       </c>
       <c r="C23">
         <v>202129.800000</v>
       </c>
       <c r="D23">
+        <v>9135458.300000</v>
+      </c>
+      <c r="E23">
+        <v>112134.700000</v>
+      </c>
+      <c r="F23">
         <v>2179945.600000</v>
-      </c>
-      <c r="E23">
-        <v>2018905.700000</v>
-      </c>
-      <c r="F23">
-        <v>112134.700000</v>
       </c>
       <c r="G23">
         <v>5825957.400000</v>
@@ -27767,19 +27871,19 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>11098398.100000</v>
+        <v>2139499.800000</v>
       </c>
       <c r="C24">
         <v>1195698.900000</v>
       </c>
       <c r="D24">
+        <v>11098398.100000</v>
+      </c>
+      <c r="E24">
+        <v>745419.500000</v>
+      </c>
+      <c r="F24">
         <v>2573885.700000</v>
-      </c>
-      <c r="E24">
-        <v>2139499.800000</v>
-      </c>
-      <c r="F24">
-        <v>745419.500000</v>
       </c>
       <c r="G24">
         <v>6811768.200000</v>
@@ -27790,19 +27894,19 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>13798200.700000</v>
+        <v>3748857.500000</v>
       </c>
       <c r="C25">
         <v>801737.400000</v>
       </c>
       <c r="D25">
+        <v>13798200.700000</v>
+      </c>
+      <c r="E25">
+        <v>233527.800000</v>
+      </c>
+      <c r="F25">
         <v>2566571.300000</v>
-      </c>
-      <c r="E25">
-        <v>3748857.500000</v>
-      </c>
-      <c r="F25">
-        <v>233527.800000</v>
       </c>
       <c r="G25">
         <v>7467375.000000</v>
@@ -27813,19 +27917,19 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>13458182.800000</v>
+        <v>2120087.700000</v>
       </c>
       <c r="C26">
         <v>663935.900000</v>
       </c>
       <c r="D26">
+        <v>13458182.800000</v>
+      </c>
+      <c r="E26">
+        <v>684914.500000</v>
+      </c>
+      <c r="F26">
         <v>3983185.400000</v>
-      </c>
-      <c r="E26">
-        <v>2120087.700000</v>
-      </c>
-      <c r="F26">
-        <v>684914.500000</v>
       </c>
       <c r="G26">
         <v>7619392.200000</v>
@@ -27836,19 +27940,19 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>15043744.400000</v>
+        <v>1773390.700000</v>
       </c>
       <c r="C27">
         <v>192825.200000</v>
       </c>
       <c r="D27">
+        <v>15043744.400000</v>
+      </c>
+      <c r="E27">
+        <v>205153.300000</v>
+      </c>
+      <c r="F27">
         <v>2326820.100000</v>
-      </c>
-      <c r="E27">
-        <v>1773390.700000</v>
-      </c>
-      <c r="F27">
-        <v>205153.300000</v>
       </c>
       <c r="G27">
         <v>9734007.100000</v>
@@ -27859,19 +27963,19 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>22348744.900000</v>
+        <v>2677951.600000</v>
       </c>
       <c r="C28">
         <v>744869.300000</v>
       </c>
       <c r="D28">
+        <v>22348744.900000</v>
+      </c>
+      <c r="E28">
+        <v>208502.700000</v>
+      </c>
+      <c r="F28">
         <v>2984006.300000</v>
-      </c>
-      <c r="E28">
-        <v>2677951.600000</v>
-      </c>
-      <c r="F28">
-        <v>208502.700000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -27879,19 +27983,19 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>23209022.200000</v>
+        <v>3387358.700000</v>
       </c>
       <c r="C29">
         <v>1288736.900000</v>
       </c>
       <c r="D29">
+        <v>23209022.200000</v>
+      </c>
+      <c r="E29">
+        <v>537600.700000</v>
+      </c>
+      <c r="F29">
         <v>3817033.300000</v>
-      </c>
-      <c r="E29">
-        <v>3387358.700000</v>
-      </c>
-      <c r="F29">
-        <v>537600.700000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -27899,19 +28003,19 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>22716848.400000</v>
+        <v>2885322.700000</v>
       </c>
       <c r="C30">
         <v>373936.700000</v>
       </c>
       <c r="D30">
+        <v>22716848.400000</v>
+      </c>
+      <c r="E30">
+        <v>1010772.000000</v>
+      </c>
+      <c r="F30">
         <v>2321027.900000</v>
-      </c>
-      <c r="E30">
-        <v>2885322.700000</v>
-      </c>
-      <c r="F30">
-        <v>1010772.000000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -27919,19 +28023,19 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>21567351.700000</v>
+        <v>2139142.700000</v>
       </c>
       <c r="C31">
         <v>326859.600000</v>
       </c>
       <c r="D31">
+        <v>21567351.700000</v>
+      </c>
+      <c r="E31">
+        <v>519916.800000</v>
+      </c>
+      <c r="F31">
         <v>3655489.900000</v>
-      </c>
-      <c r="E31">
-        <v>2139142.700000</v>
-      </c>
-      <c r="F31">
-        <v>519916.800000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -27939,19 +28043,19 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>24297393.100000</v>
+        <v>1566120.000000</v>
       </c>
       <c r="C32">
         <v>180150.200000</v>
       </c>
       <c r="D32">
+        <v>24297393.100000</v>
+      </c>
+      <c r="E32">
+        <v>390119.900000</v>
+      </c>
+      <c r="F32">
         <v>2232489.000000</v>
-      </c>
-      <c r="E32">
-        <v>1566120.000000</v>
-      </c>
-      <c r="F32">
-        <v>390119.900000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -27959,19 +28063,19 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>17438016.300000</v>
+        <v>3880082.300000</v>
       </c>
       <c r="C33">
-        <v>83214.400000</v>
+        <v>165033.900000</v>
       </c>
       <c r="D33">
-        <v>2897163.400000</v>
+        <v>23358704.000000</v>
       </c>
       <c r="E33">
-        <v>2135220.800000</v>
+        <v>236288.400000</v>
       </c>
       <c r="F33">
-        <v>168192.200000</v>
+        <v>3452960.400000</v>
       </c>
     </row>
   </sheetData>
@@ -27991,22 +28095,22 @@
     <row r="1" spans="1:7">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -28014,19 +28118,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>73.000000</v>
+        <v>8.000000</v>
       </c>
       <c r="C2">
         <v>1.000000</v>
       </c>
       <c r="D2">
+        <v>73.000000</v>
+      </c>
+      <c r="E2">
+        <v>1.000000</v>
+      </c>
+      <c r="F2">
         <v>20.000000</v>
-      </c>
-      <c r="E2">
-        <v>8.000000</v>
-      </c>
-      <c r="F2">
-        <v>1.000000</v>
       </c>
       <c r="G2">
         <v>2.000000</v>
@@ -28037,16 +28141,16 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>9.000000</v>
+      </c>
+      <c r="D3">
         <v>109.000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>2.000000</v>
+      </c>
+      <c r="F3">
         <v>22.000000</v>
-      </c>
-      <c r="E3">
-        <v>9.000000</v>
-      </c>
-      <c r="F3">
-        <v>2.000000</v>
       </c>
       <c r="G3">
         <v>11.000000</v>
@@ -28057,16 +28161,16 @@
         <v>4</v>
       </c>
       <c r="B4">
+        <v>11.000000</v>
+      </c>
+      <c r="D4">
         <v>117.000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>3.000000</v>
+      </c>
+      <c r="F4">
         <v>23.000000</v>
-      </c>
-      <c r="E4">
-        <v>11.000000</v>
-      </c>
-      <c r="F4">
-        <v>3.000000</v>
       </c>
       <c r="G4">
         <v>6.000000</v>
@@ -28077,19 +28181,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>136.000000</v>
+        <v>12.000000</v>
       </c>
       <c r="C5">
         <v>1.000000</v>
       </c>
       <c r="D5">
+        <v>136.000000</v>
+      </c>
+      <c r="E5">
+        <v>4.000000</v>
+      </c>
+      <c r="F5">
         <v>24.000000</v>
-      </c>
-      <c r="E5">
-        <v>12.000000</v>
-      </c>
-      <c r="F5">
-        <v>4.000000</v>
       </c>
       <c r="G5">
         <v>10.000000</v>
@@ -28100,16 +28204,16 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <v>18.000000</v>
+      </c>
+      <c r="D6">
         <v>280.000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>9.000000</v>
+      </c>
+      <c r="F6">
         <v>48.000000</v>
-      </c>
-      <c r="E6">
-        <v>18.000000</v>
-      </c>
-      <c r="F6">
-        <v>9.000000</v>
       </c>
       <c r="G6">
         <v>43.000000</v>
@@ -28120,16 +28224,16 @@
         <v>7</v>
       </c>
       <c r="B7">
+        <v>22.000000</v>
+      </c>
+      <c r="D7">
         <v>187.000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>11.000000</v>
+      </c>
+      <c r="F7">
         <v>50.000000</v>
-      </c>
-      <c r="E7">
-        <v>22.000000</v>
-      </c>
-      <c r="F7">
-        <v>11.000000</v>
       </c>
       <c r="G7">
         <v>24.000000</v>
@@ -28140,16 +28244,16 @@
         <v>8</v>
       </c>
       <c r="B8">
+        <v>29.000000</v>
+      </c>
+      <c r="D8">
         <v>238.000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>8.000000</v>
+      </c>
+      <c r="F8">
         <v>59.000000</v>
-      </c>
-      <c r="E8">
-        <v>29.000000</v>
-      </c>
-      <c r="F8">
-        <v>8.000000</v>
       </c>
       <c r="G8">
         <v>32.000000</v>
@@ -28160,19 +28264,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>213.000000</v>
+        <v>23.000000</v>
       </c>
       <c r="C9">
         <v>2.000000</v>
       </c>
       <c r="D9">
+        <v>213.000000</v>
+      </c>
+      <c r="E9">
+        <v>8.000000</v>
+      </c>
+      <c r="F9">
         <v>46.000000</v>
-      </c>
-      <c r="E9">
-        <v>23.000000</v>
-      </c>
-      <c r="F9">
-        <v>8.000000</v>
       </c>
       <c r="G9">
         <v>44.000000</v>
@@ -28183,16 +28287,16 @@
         <v>10</v>
       </c>
       <c r="B10">
+        <v>26.000000</v>
+      </c>
+      <c r="D10">
         <v>253.000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>16.000000</v>
+      </c>
+      <c r="F10">
         <v>67.000000</v>
-      </c>
-      <c r="E10">
-        <v>26.000000</v>
-      </c>
-      <c r="F10">
-        <v>16.000000</v>
       </c>
       <c r="G10">
         <v>61.000000</v>
@@ -28203,19 +28307,19 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>305.000000</v>
+        <v>37.000000</v>
       </c>
       <c r="C11">
         <v>1.000000</v>
       </c>
       <c r="D11">
+        <v>305.000000</v>
+      </c>
+      <c r="E11">
+        <v>29.000000</v>
+      </c>
+      <c r="F11">
         <v>80.000000</v>
-      </c>
-      <c r="E11">
-        <v>37.000000</v>
-      </c>
-      <c r="F11">
-        <v>29.000000</v>
       </c>
       <c r="G11">
         <v>57.000000</v>
@@ -28226,19 +28330,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>376.000000</v>
+        <v>47.000000</v>
       </c>
       <c r="C12">
         <v>4.000000</v>
       </c>
       <c r="D12">
+        <v>376.000000</v>
+      </c>
+      <c r="E12">
+        <v>28.000000</v>
+      </c>
+      <c r="F12">
         <v>102.000000</v>
-      </c>
-      <c r="E12">
-        <v>47.000000</v>
-      </c>
-      <c r="F12">
-        <v>28.000000</v>
       </c>
       <c r="G12">
         <v>101.000000</v>
@@ -28249,19 +28353,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>259.000000</v>
+        <v>28.000000</v>
       </c>
       <c r="C13">
         <v>6.000000</v>
       </c>
       <c r="D13">
+        <v>259.000000</v>
+      </c>
+      <c r="E13">
+        <v>18.000000</v>
+      </c>
+      <c r="F13">
         <v>74.000000</v>
-      </c>
-      <c r="E13">
-        <v>28.000000</v>
-      </c>
-      <c r="F13">
-        <v>18.000000</v>
       </c>
       <c r="G13">
         <v>83.000000</v>
@@ -28272,19 +28376,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>260.000000</v>
+        <v>32.000000</v>
       </c>
       <c r="C14">
         <v>7.000000</v>
       </c>
       <c r="D14">
+        <v>260.000000</v>
+      </c>
+      <c r="E14">
+        <v>20.000000</v>
+      </c>
+      <c r="F14">
         <v>72.000000</v>
-      </c>
-      <c r="E14">
-        <v>32.000000</v>
-      </c>
-      <c r="F14">
-        <v>20.000000</v>
       </c>
       <c r="G14">
         <v>86.000000</v>
@@ -28295,19 +28399,19 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>320.000000</v>
+        <v>35.000000</v>
       </c>
       <c r="C15">
         <v>11.000000</v>
       </c>
       <c r="D15">
+        <v>320.000000</v>
+      </c>
+      <c r="E15">
+        <v>21.000000</v>
+      </c>
+      <c r="F15">
         <v>121.000000</v>
-      </c>
-      <c r="E15">
-        <v>35.000000</v>
-      </c>
-      <c r="F15">
-        <v>21.000000</v>
       </c>
       <c r="G15">
         <v>104.000000</v>
@@ -28318,19 +28422,19 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>330.000000</v>
+        <v>34.000000</v>
       </c>
       <c r="C16">
         <v>13.000000</v>
       </c>
       <c r="D16">
+        <v>330.000000</v>
+      </c>
+      <c r="E16">
+        <v>24.000000</v>
+      </c>
+      <c r="F16">
         <v>104.000000</v>
-      </c>
-      <c r="E16">
-        <v>34.000000</v>
-      </c>
-      <c r="F16">
-        <v>24.000000</v>
       </c>
       <c r="G16">
         <v>104.000000</v>
@@ -28341,19 +28445,19 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>477.000000</v>
+        <v>63.000000</v>
       </c>
       <c r="C17">
         <v>15.000000</v>
       </c>
       <c r="D17">
+        <v>477.000000</v>
+      </c>
+      <c r="E17">
+        <v>38.000000</v>
+      </c>
+      <c r="F17">
         <v>152.000000</v>
-      </c>
-      <c r="E17">
-        <v>63.000000</v>
-      </c>
-      <c r="F17">
-        <v>38.000000</v>
       </c>
       <c r="G17">
         <v>182.000000</v>
@@ -28364,19 +28468,19 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>471.000000</v>
+        <v>65.000000</v>
       </c>
       <c r="C18">
         <v>14.000000</v>
       </c>
       <c r="D18">
+        <v>471.000000</v>
+      </c>
+      <c r="E18">
+        <v>24.000000</v>
+      </c>
+      <c r="F18">
         <v>121.000000</v>
-      </c>
-      <c r="E18">
-        <v>65.000000</v>
-      </c>
-      <c r="F18">
-        <v>24.000000</v>
       </c>
       <c r="G18">
         <v>200.000000</v>
@@ -28387,19 +28491,19 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>566.000000</v>
+        <v>66.000000</v>
       </c>
       <c r="C19">
         <v>18.000000</v>
       </c>
       <c r="D19">
+        <v>566.000000</v>
+      </c>
+      <c r="E19">
+        <v>28.000000</v>
+      </c>
+      <c r="F19">
         <v>136.000000</v>
-      </c>
-      <c r="E19">
-        <v>66.000000</v>
-      </c>
-      <c r="F19">
-        <v>28.000000</v>
       </c>
       <c r="G19">
         <v>188.000000</v>
@@ -28410,19 +28514,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>702.000000</v>
+        <v>81.000000</v>
       </c>
       <c r="C20">
         <v>7.000000</v>
       </c>
       <c r="D20">
+        <v>702.000000</v>
+      </c>
+      <c r="E20">
+        <v>36.000000</v>
+      </c>
+      <c r="F20">
         <v>137.000000</v>
-      </c>
-      <c r="E20">
-        <v>81.000000</v>
-      </c>
-      <c r="F20">
-        <v>36.000000</v>
       </c>
       <c r="G20">
         <v>185.000000</v>
@@ -28433,19 +28537,19 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>733.000000</v>
+        <v>65.000000</v>
       </c>
       <c r="C21">
         <v>13.000000</v>
       </c>
       <c r="D21">
+        <v>733.000000</v>
+      </c>
+      <c r="E21">
+        <v>30.000000</v>
+      </c>
+      <c r="F21">
         <v>149.000000</v>
-      </c>
-      <c r="E21">
-        <v>65.000000</v>
-      </c>
-      <c r="F21">
-        <v>30.000000</v>
       </c>
       <c r="G21">
         <v>254.000000</v>
@@ -28456,19 +28560,19 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1625.000000</v>
+        <v>233.000000</v>
       </c>
       <c r="C22">
         <v>45.000000</v>
       </c>
       <c r="D22">
+        <v>1625.000000</v>
+      </c>
+      <c r="E22">
+        <v>103.000000</v>
+      </c>
+      <c r="F22">
         <v>455.000000</v>
-      </c>
-      <c r="E22">
-        <v>233.000000</v>
-      </c>
-      <c r="F22">
-        <v>103.000000</v>
       </c>
       <c r="G22">
         <v>608.000000</v>
@@ -28479,19 +28583,19 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1901.000000</v>
+        <v>265.000000</v>
       </c>
       <c r="C23">
         <v>53.000000</v>
       </c>
       <c r="D23">
+        <v>1901.000000</v>
+      </c>
+      <c r="E23">
+        <v>114.000000</v>
+      </c>
+      <c r="F23">
         <v>457.000000</v>
-      </c>
-      <c r="E23">
-        <v>265.000000</v>
-      </c>
-      <c r="F23">
-        <v>114.000000</v>
       </c>
       <c r="G23">
         <v>824.000000</v>
@@ -28502,19 +28606,19 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2364.000000</v>
+        <v>345.000000</v>
       </c>
       <c r="C24">
         <v>42.000000</v>
       </c>
       <c r="D24">
+        <v>2364.000000</v>
+      </c>
+      <c r="E24">
+        <v>144.000000</v>
+      </c>
+      <c r="F24">
         <v>520.000000</v>
-      </c>
-      <c r="E24">
-        <v>345.000000</v>
-      </c>
-      <c r="F24">
-        <v>144.000000</v>
       </c>
       <c r="G24">
         <v>1164.000000</v>
@@ -28525,19 +28629,19 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>4991.000000</v>
+        <v>631.000000</v>
       </c>
       <c r="C25">
         <v>86.000000</v>
       </c>
       <c r="D25">
+        <v>4991.000000</v>
+      </c>
+      <c r="E25">
+        <v>310.000000</v>
+      </c>
+      <c r="F25">
         <v>1004.000000</v>
-      </c>
-      <c r="E25">
-        <v>631.000000</v>
-      </c>
-      <c r="F25">
-        <v>310.000000</v>
       </c>
       <c r="G25">
         <v>2589.000000</v>
@@ -28548,19 +28652,19 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>4944.000000</v>
+        <v>493.000000</v>
       </c>
       <c r="C26">
         <v>83.000000</v>
       </c>
       <c r="D26">
+        <v>4944.000000</v>
+      </c>
+      <c r="E26">
+        <v>263.000000</v>
+      </c>
+      <c r="F26">
         <v>897.000000</v>
-      </c>
-      <c r="E26">
-        <v>493.000000</v>
-      </c>
-      <c r="F26">
-        <v>263.000000</v>
       </c>
       <c r="G26">
         <v>2205.000000</v>
@@ -28571,19 +28675,19 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10515.000000</v>
+        <v>914.000000</v>
       </c>
       <c r="C27">
         <v>161.000000</v>
       </c>
       <c r="D27">
+        <v>10515.000000</v>
+      </c>
+      <c r="E27">
+        <v>502.000000</v>
+      </c>
+      <c r="F27">
         <v>1604.000000</v>
-      </c>
-      <c r="E27">
-        <v>914.000000</v>
-      </c>
-      <c r="F27">
-        <v>502.000000</v>
       </c>
       <c r="G27">
         <v>4042.000000</v>
@@ -28594,19 +28698,19 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>18298.000000</v>
+        <v>2357.000000</v>
       </c>
       <c r="C28">
         <v>479.000000</v>
       </c>
       <c r="D28">
+        <v>18298.000000</v>
+      </c>
+      <c r="E28">
+        <v>978.000000</v>
+      </c>
+      <c r="F28">
         <v>3209.000000</v>
-      </c>
-      <c r="E28">
-        <v>2357.000000</v>
-      </c>
-      <c r="F28">
-        <v>978.000000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -28614,19 +28718,19 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>19303.000000</v>
+        <v>2057.000000</v>
       </c>
       <c r="C29">
         <v>475.000000</v>
       </c>
       <c r="D29">
+        <v>19303.000000</v>
+      </c>
+      <c r="E29">
+        <v>923.000000</v>
+      </c>
+      <c r="F29">
         <v>3499.000000</v>
-      </c>
-      <c r="E29">
-        <v>2057.000000</v>
-      </c>
-      <c r="F29">
-        <v>923.000000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -28634,19 +28738,19 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>15877.000000</v>
+        <v>1671.000000</v>
       </c>
       <c r="C30">
         <v>299.000000</v>
       </c>
       <c r="D30">
+        <v>15877.000000</v>
+      </c>
+      <c r="E30">
+        <v>779.000000</v>
+      </c>
+      <c r="F30">
         <v>3346.000000</v>
-      </c>
-      <c r="E30">
-        <v>1671.000000</v>
-      </c>
-      <c r="F30">
-        <v>779.000000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -28654,19 +28758,19 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>20870.000000</v>
+        <v>2556.000000</v>
       </c>
       <c r="C31">
         <v>396.000000</v>
       </c>
       <c r="D31">
+        <v>20870.000000</v>
+      </c>
+      <c r="E31">
+        <v>1246.000000</v>
+      </c>
+      <c r="F31">
         <v>5286.000000</v>
-      </c>
-      <c r="E31">
-        <v>2556.000000</v>
-      </c>
-      <c r="F31">
-        <v>1246.000000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -28674,19 +28778,19 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>41310.000000</v>
+        <v>3590.000000</v>
       </c>
       <c r="C32">
         <v>643.000000</v>
       </c>
       <c r="D32">
+        <v>41310.000000</v>
+      </c>
+      <c r="E32">
+        <v>1908.000000</v>
+      </c>
+      <c r="F32">
         <v>9275.000000</v>
-      </c>
-      <c r="E32">
-        <v>3590.000000</v>
-      </c>
-      <c r="F32">
-        <v>1908.000000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -28694,19 +28798,19 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>29037.000000</v>
+        <v>1591.000000</v>
       </c>
       <c r="C33">
-        <v>423.000000</v>
+        <v>275.000000</v>
       </c>
       <c r="D33">
-        <v>7465.000000</v>
+        <v>19295.000000</v>
       </c>
       <c r="E33">
-        <v>2342.000000</v>
+        <v>1014.000000</v>
       </c>
       <c r="F33">
-        <v>1466.000000</v>
+        <v>5096.000000</v>
       </c>
     </row>
   </sheetData>
